--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5190.815310809578</v>
+        <v>5670.350356800305</v>
       </c>
       <c r="AB2" t="n">
-        <v>7102.30251085939</v>
+        <v>7758.423516377083</v>
       </c>
       <c r="AC2" t="n">
-        <v>6424.468727366881</v>
+        <v>7017.970464989557</v>
       </c>
       <c r="AD2" t="n">
-        <v>5190815.310809579</v>
+        <v>5670350.356800306</v>
       </c>
       <c r="AE2" t="n">
-        <v>7102302.51085939</v>
+        <v>7758423.516377083</v>
       </c>
       <c r="AF2" t="n">
         <v>1.653795839231389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>95</v>
+        <v>94.90885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6424468.727366881</v>
+        <v>7017970.464989557</v>
       </c>
     </row>
     <row r="3">
@@ -6208,28 +6208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2559.808418993905</v>
+        <v>2853.396737296652</v>
       </c>
       <c r="AB3" t="n">
-        <v>3502.442809644853</v>
+        <v>3904.143298949176</v>
       </c>
       <c r="AC3" t="n">
-        <v>3168.174583601573</v>
+        <v>3531.537341996854</v>
       </c>
       <c r="AD3" t="n">
-        <v>2559808.418993905</v>
+        <v>2853396.737296652</v>
       </c>
       <c r="AE3" t="n">
-        <v>3502442.809644853</v>
+        <v>3904143.298949176</v>
       </c>
       <c r="AF3" t="n">
         <v>2.613286719718405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.05859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3168174.583601573</v>
+        <v>3531537.341996854</v>
       </c>
     </row>
     <row r="4">
@@ -6314,28 +6314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2100.906838183686</v>
+        <v>2365.162747064314</v>
       </c>
       <c r="AB4" t="n">
-        <v>2874.553421471208</v>
+        <v>3236.120014149777</v>
       </c>
       <c r="AC4" t="n">
-        <v>2600.210077387061</v>
+        <v>2927.269261922166</v>
       </c>
       <c r="AD4" t="n">
-        <v>2100906.838183687</v>
+        <v>2365162.747064314</v>
       </c>
       <c r="AE4" t="n">
-        <v>2874553.421471208</v>
+        <v>3236120.014149777</v>
       </c>
       <c r="AF4" t="n">
         <v>2.979966526055277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.66927083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2600210.077387061</v>
+        <v>2927269.261922166</v>
       </c>
     </row>
     <row r="5">
@@ -6420,28 +6420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1914.130130283239</v>
+        <v>2158.741676815462</v>
       </c>
       <c r="AB5" t="n">
-        <v>2618.997289715014</v>
+        <v>2953.685599180209</v>
       </c>
       <c r="AC5" t="n">
-        <v>2369.043864170394</v>
+        <v>2671.789991118224</v>
       </c>
       <c r="AD5" t="n">
-        <v>1914130.130283239</v>
+        <v>2158741.676815462</v>
       </c>
       <c r="AE5" t="n">
-        <v>2618997.289715014</v>
+        <v>2953685.599180209</v>
       </c>
       <c r="AF5" t="n">
         <v>3.173552248927406e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2369043.864170394</v>
+        <v>2671789.991118224</v>
       </c>
     </row>
     <row r="6">
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1805.024059022496</v>
+        <v>2049.668759943643</v>
       </c>
       <c r="AB6" t="n">
-        <v>2469.713549595915</v>
+        <v>2804.447222358704</v>
       </c>
       <c r="AC6" t="n">
-        <v>2234.007554687217</v>
+        <v>2536.794715523186</v>
       </c>
       <c r="AD6" t="n">
-        <v>1805024.059022496</v>
+        <v>2049668.759943643</v>
       </c>
       <c r="AE6" t="n">
-        <v>2469713.549595915</v>
+        <v>2804447.222358704</v>
       </c>
       <c r="AF6" t="n">
         <v>3.296261007261047e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.6171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2234007.554687217</v>
+        <v>2536794.715523186</v>
       </c>
     </row>
     <row r="7">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1735.244498930011</v>
+        <v>1970.033358773106</v>
       </c>
       <c r="AB7" t="n">
-        <v>2374.238077020453</v>
+        <v>2695.486553211229</v>
       </c>
       <c r="AC7" t="n">
-        <v>2147.64412721369</v>
+        <v>2438.233099711887</v>
       </c>
       <c r="AD7" t="n">
-        <v>1735244.498930011</v>
+        <v>1970033.358773106</v>
       </c>
       <c r="AE7" t="n">
-        <v>2374238.077020453</v>
+        <v>2695486.553211229</v>
       </c>
       <c r="AF7" t="n">
         <v>3.380397267886667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.43229166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2147644.12721369</v>
+        <v>2438233.099711887</v>
       </c>
     </row>
     <row r="8">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1682.946043821615</v>
+        <v>1917.802223472414</v>
       </c>
       <c r="AB8" t="n">
-        <v>2302.681023496144</v>
+        <v>2624.021609617761</v>
       </c>
       <c r="AC8" t="n">
-        <v>2082.916378446785</v>
+        <v>2373.5886700333</v>
       </c>
       <c r="AD8" t="n">
-        <v>1682946.043821615</v>
+        <v>1917802.223472414</v>
       </c>
       <c r="AE8" t="n">
-        <v>2302681.023496144</v>
+        <v>2624021.60961776</v>
       </c>
       <c r="AF8" t="n">
         <v>3.441872186108825e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.59895833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2082916.378446785</v>
+        <v>2373588.6700333</v>
       </c>
     </row>
     <row r="9">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1639.436756957253</v>
+        <v>1874.258771189271</v>
       </c>
       <c r="AB9" t="n">
-        <v>2243.149697714058</v>
+        <v>2564.443537202428</v>
       </c>
       <c r="AC9" t="n">
-        <v>2029.066638844602</v>
+        <v>2319.696645230937</v>
       </c>
       <c r="AD9" t="n">
-        <v>1639436.756957253</v>
+        <v>1874258.771189271</v>
       </c>
       <c r="AE9" t="n">
-        <v>2243149.697714058</v>
+        <v>2564443.537202428</v>
       </c>
       <c r="AF9" t="n">
         <v>3.489605652022501e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.98046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2029066.638844602</v>
+        <v>2319696.645230937</v>
       </c>
     </row>
     <row r="10">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1620.395190435455</v>
+        <v>1845.497014234686</v>
       </c>
       <c r="AB10" t="n">
-        <v>2217.096186344306</v>
+        <v>2525.090432458</v>
       </c>
       <c r="AC10" t="n">
-        <v>2005.499638033646</v>
+        <v>2284.099345570889</v>
       </c>
       <c r="AD10" t="n">
-        <v>1620395.190435455</v>
+        <v>1845497.014234686</v>
       </c>
       <c r="AE10" t="n">
-        <v>2217096.186344306</v>
+        <v>2525090.432458</v>
       </c>
       <c r="AF10" t="n">
         <v>3.514436697422039e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.66145833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2005499.638033646</v>
+        <v>2284099.345570888</v>
       </c>
     </row>
     <row r="11">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1596.270256992182</v>
+        <v>1821.270595564927</v>
       </c>
       <c r="AB11" t="n">
-        <v>2184.087388090272</v>
+        <v>2491.942777639877</v>
       </c>
       <c r="AC11" t="n">
-        <v>1975.641153156838</v>
+        <v>2254.115256405582</v>
       </c>
       <c r="AD11" t="n">
-        <v>1596270.256992182</v>
+        <v>1821270.595564927</v>
       </c>
       <c r="AE11" t="n">
-        <v>2184087.388090272</v>
+        <v>2491942.777639878</v>
       </c>
       <c r="AF11" t="n">
         <v>3.546017929920481e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.26432291666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1975641.153156838</v>
+        <v>2254115.256405582</v>
       </c>
     </row>
     <row r="12">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1565.750822879272</v>
+        <v>1790.818481259723</v>
       </c>
       <c r="AB12" t="n">
-        <v>2142.329351914582</v>
+        <v>2450.276851395028</v>
       </c>
       <c r="AC12" t="n">
-        <v>1937.868445345984</v>
+        <v>2216.425867683046</v>
       </c>
       <c r="AD12" t="n">
-        <v>1565750.822879272</v>
+        <v>1790818.481259722</v>
       </c>
       <c r="AE12" t="n">
-        <v>2142329.351914582</v>
+        <v>2450276.851395028</v>
       </c>
       <c r="AF12" t="n">
         <v>3.57133113154137e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.9453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1937868.445345984</v>
+        <v>2216425.867683046</v>
       </c>
     </row>
     <row r="13">
@@ -7268,28 +7268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1547.801775550556</v>
+        <v>1772.869433931006</v>
       </c>
       <c r="AB13" t="n">
-        <v>2117.77067350335</v>
+        <v>2425.718172983797</v>
       </c>
       <c r="AC13" t="n">
-        <v>1915.653612733999</v>
+        <v>2194.211035071061</v>
       </c>
       <c r="AD13" t="n">
-        <v>1547801.775550556</v>
+        <v>1772869.433931006</v>
       </c>
       <c r="AE13" t="n">
-        <v>2117770.67350335</v>
+        <v>2425718.172983797</v>
       </c>
       <c r="AF13" t="n">
         <v>3.592063849059431e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.69140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1915653.612733999</v>
+        <v>2194211.035071061</v>
       </c>
     </row>
     <row r="14">
@@ -7374,28 +7374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1529.836542395785</v>
+        <v>1745.082525116964</v>
       </c>
       <c r="AB14" t="n">
-        <v>2093.189848930844</v>
+        <v>2387.698898472525</v>
       </c>
       <c r="AC14" t="n">
-        <v>1893.418747559288</v>
+        <v>2159.820266758757</v>
       </c>
       <c r="AD14" t="n">
-        <v>1529836.542395785</v>
+        <v>1745082.525116964</v>
       </c>
       <c r="AE14" t="n">
-        <v>2093189.848930844</v>
+        <v>2387698.898472525</v>
       </c>
       <c r="AF14" t="n">
         <v>3.609180394917365e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.48307291666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1893418.747559288</v>
+        <v>2159820.266758758</v>
       </c>
     </row>
     <row r="15">
@@ -7480,28 +7480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1513.777469607282</v>
+        <v>1729.02345232846</v>
       </c>
       <c r="AB15" t="n">
-        <v>2071.217117065324</v>
+        <v>2365.726166607004</v>
       </c>
       <c r="AC15" t="n">
-        <v>1873.54306238409</v>
+        <v>2139.94458158356</v>
       </c>
       <c r="AD15" t="n">
-        <v>1513777.469607281</v>
+        <v>1729023.45232846</v>
       </c>
       <c r="AE15" t="n">
-        <v>2071217.117065324</v>
+        <v>2365726.166607005</v>
       </c>
       <c r="AF15" t="n">
         <v>3.626296940775299e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.28125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1873543.06238409</v>
+        <v>2139944.58158356</v>
       </c>
     </row>
     <row r="16">
@@ -7586,28 +7586,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1498.835544516558</v>
+        <v>1714.081527237737</v>
       </c>
       <c r="AB16" t="n">
-        <v>2050.772915964984</v>
+        <v>2345.281965506666</v>
       </c>
       <c r="AC16" t="n">
-        <v>1855.050027143151</v>
+        <v>2121.451546342621</v>
       </c>
       <c r="AD16" t="n">
-        <v>1498835.544516558</v>
+        <v>1714081.527237737</v>
       </c>
       <c r="AE16" t="n">
-        <v>2050772.915964984</v>
+        <v>2345281.965506665</v>
       </c>
       <c r="AF16" t="n">
         <v>3.638833002530406e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.13151041666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1855050.027143151</v>
+        <v>2121451.546342621</v>
       </c>
     </row>
     <row r="17">
@@ -7692,28 +7692,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1486.719309529964</v>
+        <v>1701.965292251143</v>
       </c>
       <c r="AB17" t="n">
-        <v>2034.194948725764</v>
+        <v>2328.703998267445</v>
       </c>
       <c r="AC17" t="n">
-        <v>1840.054237829918</v>
+        <v>2106.455757029388</v>
       </c>
       <c r="AD17" t="n">
-        <v>1486719.309529964</v>
+        <v>1701965.292251143</v>
       </c>
       <c r="AE17" t="n">
-        <v>2034194.948725764</v>
+        <v>2328703.998267445</v>
       </c>
       <c r="AF17" t="n">
         <v>3.648958283178762e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.01432291666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1840054.237829918</v>
+        <v>2106455.757029388</v>
       </c>
     </row>
     <row r="18">
@@ -7798,28 +7798,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1464.164169804221</v>
+        <v>1689.197662765891</v>
       </c>
       <c r="AB18" t="n">
-        <v>2003.334011490466</v>
+        <v>2311.234764337664</v>
       </c>
       <c r="AC18" t="n">
-        <v>1812.138625130759</v>
+        <v>2090.653762267642</v>
       </c>
       <c r="AD18" t="n">
-        <v>1464164.169804221</v>
+        <v>1689197.662765891</v>
       </c>
       <c r="AE18" t="n">
-        <v>2003334.011490466</v>
+        <v>2311234.764337664</v>
       </c>
       <c r="AF18" t="n">
         <v>3.657878173273742e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.91015625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1812138.625130759</v>
+        <v>2090653.762267642</v>
       </c>
     </row>
     <row r="19">
@@ -7904,28 +7904,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1452.776300945898</v>
+        <v>1668.089603474781</v>
       </c>
       <c r="AB19" t="n">
-        <v>1987.752626921192</v>
+        <v>2282.353786393714</v>
       </c>
       <c r="AC19" t="n">
-        <v>1798.044306036166</v>
+        <v>2064.529144323955</v>
       </c>
       <c r="AD19" t="n">
-        <v>1452776.300945898</v>
+        <v>1668089.603474781</v>
       </c>
       <c r="AE19" t="n">
-        <v>1987752.626921192</v>
+        <v>2282353.786393714</v>
       </c>
       <c r="AF19" t="n">
         <v>3.666798063368721e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.80598958333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1798044.306036166</v>
+        <v>2064529.144323955</v>
       </c>
     </row>
     <row r="20">
@@ -8010,28 +8010,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1438.612194881233</v>
+        <v>1653.925497410116</v>
       </c>
       <c r="AB20" t="n">
-        <v>1968.372672127259</v>
+        <v>2262.973831599781</v>
       </c>
       <c r="AC20" t="n">
-        <v>1780.513946927829</v>
+        <v>2046.998785215618</v>
       </c>
       <c r="AD20" t="n">
-        <v>1438612.194881233</v>
+        <v>1653925.497410116</v>
       </c>
       <c r="AE20" t="n">
-        <v>1968372.672127259</v>
+        <v>2262973.831599781</v>
       </c>
       <c r="AF20" t="n">
         <v>3.676441187795726e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.68880208333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>1780513.946927829</v>
+        <v>2046998.785215618</v>
       </c>
     </row>
     <row r="21">
@@ -8116,28 +8116,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1424.249026340723</v>
+        <v>1639.562328869606</v>
       </c>
       <c r="AB21" t="n">
-        <v>1948.720351271858</v>
+        <v>2243.321510744381</v>
       </c>
       <c r="AC21" t="n">
-        <v>1762.737215992663</v>
+        <v>2029.222054280452</v>
       </c>
       <c r="AD21" t="n">
-        <v>1424249.026340723</v>
+        <v>1639562.328869606</v>
       </c>
       <c r="AE21" t="n">
-        <v>1948720.351271858</v>
+        <v>2243321.510744381</v>
       </c>
       <c r="AF21" t="n">
         <v>3.684396765448006e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.59765625000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>1762737.215992663</v>
+        <v>2029222.054280452</v>
       </c>
     </row>
     <row r="22">
@@ -8222,28 +8222,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1415.994810572652</v>
+        <v>1631.308113101535</v>
       </c>
       <c r="AB22" t="n">
-        <v>1937.426569107684</v>
+        <v>2232.027728580207</v>
       </c>
       <c r="AC22" t="n">
-        <v>1752.521296547315</v>
+        <v>2019.006134835104</v>
       </c>
       <c r="AD22" t="n">
-        <v>1415994.810572652</v>
+        <v>1631308.113101535</v>
       </c>
       <c r="AE22" t="n">
-        <v>1937426.569107684</v>
+        <v>2232027.728580207</v>
       </c>
       <c r="AF22" t="n">
         <v>3.689941561993534e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.53255208333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>1752521.296547315</v>
+        <v>2019006.134835104</v>
       </c>
     </row>
     <row r="23">
@@ -8328,28 +8328,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1420.380523695861</v>
+        <v>1635.693826224744</v>
       </c>
       <c r="AB23" t="n">
-        <v>1943.427295286867</v>
+        <v>2238.028454759389</v>
       </c>
       <c r="AC23" t="n">
-        <v>1757.949321842028</v>
+        <v>2024.434160129817</v>
       </c>
       <c r="AD23" t="n">
-        <v>1420380.523695861</v>
+        <v>1635693.826224744</v>
       </c>
       <c r="AE23" t="n">
-        <v>1943427.295286867</v>
+        <v>2238028.454759389</v>
       </c>
       <c r="AF23" t="n">
         <v>3.688012937108133e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>43</v>
+        <v>42.55859375000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>1757949.321842028</v>
+        <v>2024434.160129817</v>
       </c>
     </row>
     <row r="24">
@@ -8434,28 +8434,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1423.433197774843</v>
+        <v>1638.746500303726</v>
       </c>
       <c r="AB24" t="n">
-        <v>1947.604098636205</v>
+        <v>2242.205258108728</v>
       </c>
       <c r="AC24" t="n">
-        <v>1761.727496941886</v>
+        <v>2028.212335229675</v>
       </c>
       <c r="AD24" t="n">
-        <v>1423433.197774843</v>
+        <v>1638746.500303726</v>
       </c>
       <c r="AE24" t="n">
-        <v>1947604.098636205</v>
+        <v>2242205.258108728</v>
       </c>
       <c r="AF24" t="n">
         <v>3.686325390333406e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>43</v>
+        <v>42.57812500000001</v>
       </c>
       <c r="AH24" t="n">
-        <v>1761727.496941886</v>
+        <v>2028212.335229675</v>
       </c>
     </row>
     <row r="25">
@@ -8540,28 +8540,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1426.457753455085</v>
+        <v>1641.771055983968</v>
       </c>
       <c r="AB25" t="n">
-        <v>1951.742429151891</v>
+        <v>2246.343588624414</v>
       </c>
       <c r="AC25" t="n">
-        <v>1765.470871001338</v>
+        <v>2031.955709289127</v>
       </c>
       <c r="AD25" t="n">
-        <v>1426457.753455085</v>
+        <v>1641771.055983968</v>
       </c>
       <c r="AE25" t="n">
-        <v>1951742.429151891</v>
+        <v>2246343.588624414</v>
       </c>
       <c r="AF25" t="n">
         <v>3.687771858997458e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>43</v>
+        <v>42.55859375000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>1765470.871001338</v>
+        <v>2031955.709289127</v>
       </c>
     </row>
   </sheetData>
@@ -8837,28 +8837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3687.072549790974</v>
+        <v>4093.518952420392</v>
       </c>
       <c r="AB2" t="n">
-        <v>5044.815324785077</v>
+        <v>5600.933224012445</v>
       </c>
       <c r="AC2" t="n">
-        <v>4563.345230630176</v>
+        <v>5066.388018071638</v>
       </c>
       <c r="AD2" t="n">
-        <v>3687072.549790974</v>
+        <v>4093518.952420392</v>
       </c>
       <c r="AE2" t="n">
-        <v>5044815.324785077</v>
+        <v>5600933.224012445</v>
       </c>
       <c r="AF2" t="n">
         <v>2.147727986911249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4563345.230630176</v>
+        <v>5066388.018071637</v>
       </c>
     </row>
     <row r="3">
@@ -8943,28 +8943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2104.897477538588</v>
+        <v>2385.565072054164</v>
       </c>
       <c r="AB3" t="n">
-        <v>2880.013590291167</v>
+        <v>3264.035375287946</v>
       </c>
       <c r="AC3" t="n">
-        <v>2605.149135358239</v>
+        <v>2952.520420172762</v>
       </c>
       <c r="AD3" t="n">
-        <v>2104897.477538588</v>
+        <v>2385565.072054164</v>
       </c>
       <c r="AE3" t="n">
-        <v>2880013.590291168</v>
+        <v>3264035.375287946</v>
       </c>
       <c r="AF3" t="n">
         <v>3.087853575876084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.61197916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2605149.135358239</v>
+        <v>2952520.420172763</v>
       </c>
     </row>
     <row r="4">
@@ -9049,28 +9049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1798.308064459356</v>
+        <v>2040.254473404354</v>
       </c>
       <c r="AB4" t="n">
-        <v>2460.524429545858</v>
+        <v>2791.56618018664</v>
       </c>
       <c r="AC4" t="n">
-        <v>2225.695431357727</v>
+        <v>2525.143021937367</v>
       </c>
       <c r="AD4" t="n">
-        <v>1798308.064459356</v>
+        <v>2040254.473404354</v>
       </c>
       <c r="AE4" t="n">
-        <v>2460524.429545858</v>
+        <v>2791566.18018664</v>
       </c>
       <c r="AF4" t="n">
         <v>3.432091480926339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2225695.431357727</v>
+        <v>2525143.021937368</v>
       </c>
     </row>
     <row r="5">
@@ -9155,28 +9155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1655.089020975486</v>
+        <v>1897.034418890627</v>
       </c>
       <c r="AB5" t="n">
-        <v>2264.565815872957</v>
+        <v>2595.606183178085</v>
       </c>
       <c r="AC5" t="n">
-        <v>2048.438832744126</v>
+        <v>2347.885172011726</v>
       </c>
       <c r="AD5" t="n">
-        <v>1655089.020975486</v>
+        <v>1897034.418890627</v>
       </c>
       <c r="AE5" t="n">
-        <v>2264565.815872957</v>
+        <v>2595606.183178085</v>
       </c>
       <c r="AF5" t="n">
         <v>3.613310975768887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.53255208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2048438.832744126</v>
+        <v>2347885.172011727</v>
       </c>
     </row>
     <row r="6">
@@ -9261,28 +9261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1576.516662959741</v>
+        <v>1799.101973604523</v>
       </c>
       <c r="AB6" t="n">
-        <v>2157.059649268024</v>
+        <v>2461.610691063076</v>
       </c>
       <c r="AC6" t="n">
-        <v>1951.192903794115</v>
+        <v>2226.678021600319</v>
       </c>
       <c r="AD6" t="n">
-        <v>1576516.662959741</v>
+        <v>1799101.973604523</v>
       </c>
       <c r="AE6" t="n">
-        <v>2157059.649268024</v>
+        <v>2461610.691063076</v>
       </c>
       <c r="AF6" t="n">
         <v>3.728584511789548e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.06119791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1951192.903794115</v>
+        <v>2226678.021600319</v>
       </c>
     </row>
     <row r="7">
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1521.371533306148</v>
+        <v>1743.922678532149</v>
       </c>
       <c r="AB7" t="n">
-        <v>2081.607650044557</v>
+        <v>2386.111945206361</v>
       </c>
       <c r="AC7" t="n">
-        <v>1882.94193747899</v>
+        <v>2158.384770085014</v>
       </c>
       <c r="AD7" t="n">
-        <v>1521371.533306148</v>
+        <v>1743922.678532149</v>
       </c>
       <c r="AE7" t="n">
-        <v>2081607.650044558</v>
+        <v>2386111.945206361</v>
       </c>
       <c r="AF7" t="n">
         <v>3.8037629048465e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.14973958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1882941.93747899</v>
+        <v>2158384.770085014</v>
       </c>
     </row>
     <row r="8">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1474.068241135669</v>
+        <v>1696.58522094289</v>
       </c>
       <c r="AB8" t="n">
-        <v>2016.885198822943</v>
+        <v>2321.342747351499</v>
       </c>
       <c r="AC8" t="n">
-        <v>1824.396506163436</v>
+        <v>2099.79705356928</v>
       </c>
       <c r="AD8" t="n">
-        <v>1474068.241135669</v>
+        <v>1696585.22094289</v>
       </c>
       <c r="AE8" t="n">
-        <v>2016885.198822943</v>
+        <v>2321342.747351499</v>
       </c>
       <c r="AF8" t="n">
         <v>3.8631142677862e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1824396.506163436</v>
+        <v>2099797.05356928</v>
       </c>
     </row>
     <row r="9">
@@ -9579,28 +9579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1453.401426031215</v>
+        <v>1666.306187525889</v>
       </c>
       <c r="AB9" t="n">
-        <v>1988.607950641495</v>
+        <v>2279.913638013682</v>
       </c>
       <c r="AC9" t="n">
-        <v>1798.817998861058</v>
+        <v>2062.321880280544</v>
       </c>
       <c r="AD9" t="n">
-        <v>1453401.426031215</v>
+        <v>1666306.187525889</v>
       </c>
       <c r="AE9" t="n">
-        <v>1988607.950641495</v>
+        <v>2279913.638013682</v>
       </c>
       <c r="AF9" t="n">
         <v>3.891339138161968e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.13411458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1798817.998861058</v>
+        <v>2062321.880280544</v>
       </c>
     </row>
     <row r="10">
@@ -9685,28 +9685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1415.967224485177</v>
+        <v>1638.551524100102</v>
       </c>
       <c r="AB10" t="n">
-        <v>1937.388824605788</v>
+        <v>2241.938483065186</v>
       </c>
       <c r="AC10" t="n">
-        <v>1752.487154327704</v>
+        <v>2027.971020821867</v>
       </c>
       <c r="AD10" t="n">
-        <v>1415967.224485177</v>
+        <v>1638551.524100102</v>
       </c>
       <c r="AE10" t="n">
-        <v>1937388.824605788</v>
+        <v>2241938.483065186</v>
       </c>
       <c r="AF10" t="n">
         <v>3.932225632631538e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1752487.154327704</v>
+        <v>2027971.020821867</v>
       </c>
     </row>
     <row r="11">
@@ -9791,28 +9791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1393.977884293354</v>
+        <v>1606.848480369247</v>
       </c>
       <c r="AB11" t="n">
-        <v>1907.302039254113</v>
+        <v>2198.560979993053</v>
       </c>
       <c r="AC11" t="n">
-        <v>1725.271809542925</v>
+        <v>1988.73340576223</v>
       </c>
       <c r="AD11" t="n">
-        <v>1393977.884293354</v>
+        <v>1606848.480369247</v>
       </c>
       <c r="AE11" t="n">
-        <v>1907302.039254113</v>
+        <v>2198560.979993053</v>
       </c>
       <c r="AF11" t="n">
         <v>3.956493745477992e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.40494791666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1725271.809542925</v>
+        <v>1988733.405762231</v>
       </c>
     </row>
     <row r="12">
@@ -9897,28 +9897,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1371.089206000585</v>
+        <v>1583.959802076479</v>
       </c>
       <c r="AB12" t="n">
-        <v>1875.984739836727</v>
+        <v>2167.243680575667</v>
       </c>
       <c r="AC12" t="n">
-        <v>1696.943389227828</v>
+        <v>1960.404985447134</v>
       </c>
       <c r="AD12" t="n">
-        <v>1371089.206000585</v>
+        <v>1583959.802076478</v>
       </c>
       <c r="AE12" t="n">
-        <v>1875984.739836727</v>
+        <v>2167243.680575666</v>
       </c>
       <c r="AF12" t="n">
         <v>3.982608345171461e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.11848958333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1696943.389227828</v>
+        <v>1960404.985447134</v>
       </c>
     </row>
     <row r="13">
@@ -10003,28 +10003,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1342.594805749346</v>
+        <v>1565.14493994549</v>
       </c>
       <c r="AB13" t="n">
-        <v>1836.997444328764</v>
+        <v>2141.500356154913</v>
       </c>
       <c r="AC13" t="n">
-        <v>1661.676986484132</v>
+        <v>1937.118567778115</v>
       </c>
       <c r="AD13" t="n">
-        <v>1342594.805749346</v>
+        <v>1565144.93994549</v>
       </c>
       <c r="AE13" t="n">
-        <v>1836997.444328764</v>
+        <v>2141500.356154914</v>
       </c>
       <c r="AF13" t="n">
         <v>4.000281862135726e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.9296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1661676.986484132</v>
+        <v>1937118.567778115</v>
       </c>
     </row>
     <row r="14">
@@ -10109,28 +10109,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1318.930551799153</v>
+        <v>1531.868467682751</v>
       </c>
       <c r="AB14" t="n">
-        <v>1804.618968080908</v>
+        <v>2095.970018750688</v>
       </c>
       <c r="AC14" t="n">
-        <v>1632.388666565894</v>
+        <v>1895.933581873519</v>
       </c>
       <c r="AD14" t="n">
-        <v>1318930.551799153</v>
+        <v>1531868.467682751</v>
       </c>
       <c r="AE14" t="n">
-        <v>1804618.968080908</v>
+        <v>2095970.018750688</v>
       </c>
       <c r="AF14" t="n">
         <v>4.028242948676207e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.63020833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1632388.666565894</v>
+        <v>1895933.581873519</v>
       </c>
     </row>
     <row r="15">
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1307.778370518855</v>
+        <v>1520.716286402453</v>
       </c>
       <c r="AB15" t="n">
-        <v>1789.360061653689</v>
+        <v>2080.711112323469</v>
       </c>
       <c r="AC15" t="n">
-        <v>1618.58604875208</v>
+        <v>1882.130964059704</v>
       </c>
       <c r="AD15" t="n">
-        <v>1307778.370518855</v>
+        <v>1520716.286402453</v>
       </c>
       <c r="AE15" t="n">
-        <v>1789360.061653689</v>
+        <v>2080711.112323469</v>
       </c>
       <c r="AF15" t="n">
         <v>4.027715381005631e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.63671874999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>1618586.04875208</v>
+        <v>1882130.964059704</v>
       </c>
     </row>
     <row r="16">
@@ -10321,28 +10321,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1302.790180324266</v>
+        <v>1515.728096207864</v>
       </c>
       <c r="AB16" t="n">
-        <v>1782.534999766032</v>
+        <v>2073.886050435813</v>
       </c>
       <c r="AC16" t="n">
-        <v>1612.412361191946</v>
+        <v>1875.957276499571</v>
       </c>
       <c r="AD16" t="n">
-        <v>1302790.180324266</v>
+        <v>1515728.096207864</v>
       </c>
       <c r="AE16" t="n">
-        <v>1782534.999766032</v>
+        <v>2073886.050435812</v>
       </c>
       <c r="AF16" t="n">
         <v>4.031408354699657e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.59765625000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>1612412.361191946</v>
+        <v>1875957.276499571</v>
       </c>
     </row>
     <row r="17">
@@ -10427,28 +10427,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1301.287247967204</v>
+        <v>1514.225163850802</v>
       </c>
       <c r="AB17" t="n">
-        <v>1780.478621410404</v>
+        <v>2071.829672080185</v>
       </c>
       <c r="AC17" t="n">
-        <v>1610.552240700434</v>
+        <v>1874.097156008059</v>
       </c>
       <c r="AD17" t="n">
-        <v>1301287.247967204</v>
+        <v>1514225.163850802</v>
       </c>
       <c r="AE17" t="n">
-        <v>1780478.621410404</v>
+        <v>2071829.672080184</v>
       </c>
       <c r="AF17" t="n">
         <v>4.034837544558396e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.56510416666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1610552.240700434</v>
+        <v>1874097.156008059</v>
       </c>
     </row>
   </sheetData>
@@ -10724,28 +10724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1641.015544037668</v>
+        <v>1912.188863844472</v>
       </c>
       <c r="AB2" t="n">
-        <v>2245.309863848653</v>
+        <v>2616.341163330861</v>
       </c>
       <c r="AC2" t="n">
-        <v>2031.020641755123</v>
+        <v>2366.641234760449</v>
       </c>
       <c r="AD2" t="n">
-        <v>1641015.544037669</v>
+        <v>1912188.863844472</v>
       </c>
       <c r="AE2" t="n">
-        <v>2245309.863848653</v>
+        <v>2616341.163330861</v>
       </c>
       <c r="AF2" t="n">
         <v>4.26395101441661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.21744791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2031020.641755123</v>
+        <v>2366641.234760449</v>
       </c>
     </row>
     <row r="3">
@@ -10830,28 +10830,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1238.608931834343</v>
+        <v>1463.039008361294</v>
       </c>
       <c r="AB3" t="n">
-        <v>1694.719384105271</v>
+        <v>2001.794515965634</v>
       </c>
       <c r="AC3" t="n">
-        <v>1532.977744639858</v>
+        <v>1810.746056898121</v>
       </c>
       <c r="AD3" t="n">
-        <v>1238608.931834343</v>
+        <v>1463039.008361294</v>
       </c>
       <c r="AE3" t="n">
-        <v>1694719.384105271</v>
+        <v>2001794.515965634</v>
       </c>
       <c r="AF3" t="n">
         <v>5.080953630856508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.17447916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1532977.744639858</v>
+        <v>1810746.056898121</v>
       </c>
     </row>
     <row r="4">
@@ -10936,28 +10936,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1114.57107844571</v>
+        <v>1329.712993040639</v>
       </c>
       <c r="AB4" t="n">
-        <v>1525.005320935058</v>
+        <v>1819.371979875243</v>
       </c>
       <c r="AC4" t="n">
-        <v>1379.460953463426</v>
+        <v>1645.73367162056</v>
       </c>
       <c r="AD4" t="n">
-        <v>1114571.07844571</v>
+        <v>1329712.993040639</v>
       </c>
       <c r="AE4" t="n">
-        <v>1525005.320935058</v>
+        <v>1819371.979875243</v>
       </c>
       <c r="AF4" t="n">
         <v>5.362615190827901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.70052083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1379460.953463426</v>
+        <v>1645733.67162056</v>
       </c>
     </row>
     <row r="5">
@@ -11042,28 +11042,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1045.479492929297</v>
+        <v>1251.198605976795</v>
       </c>
       <c r="AB5" t="n">
-        <v>1430.471165525873</v>
+        <v>1711.945131684198</v>
       </c>
       <c r="AC5" t="n">
-        <v>1293.949005166974</v>
+        <v>1548.55949104634</v>
       </c>
       <c r="AD5" t="n">
-        <v>1045479.492929297</v>
+        <v>1251198.605976795</v>
       </c>
       <c r="AE5" t="n">
-        <v>1430471.165525873</v>
+        <v>1711945.131684198</v>
       </c>
       <c r="AF5" t="n">
         <v>5.514675614707883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.46354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1293949.005166974</v>
+        <v>1548559.49104634</v>
       </c>
     </row>
     <row r="6">
@@ -11148,28 +11148,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1038.870808047602</v>
+        <v>1244.5899210951</v>
       </c>
       <c r="AB6" t="n">
-        <v>1421.428871316138</v>
+        <v>1702.902837474463</v>
       </c>
       <c r="AC6" t="n">
-        <v>1285.769694825676</v>
+        <v>1540.380180705042</v>
       </c>
       <c r="AD6" t="n">
-        <v>1038870.808047602</v>
+        <v>1244589.9210951</v>
       </c>
       <c r="AE6" t="n">
-        <v>1421428.871316138</v>
+        <v>1702902.837474463</v>
       </c>
       <c r="AF6" t="n">
         <v>5.528298461399309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1285769.694825676</v>
+        <v>1540380.180705043</v>
       </c>
     </row>
   </sheetData>
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2202.260811393542</v>
+        <v>2505.601570278382</v>
       </c>
       <c r="AB2" t="n">
-        <v>3013.230399038826</v>
+        <v>3428.274607794884</v>
       </c>
       <c r="AC2" t="n">
-        <v>2725.651918849873</v>
+        <v>3101.084890840442</v>
       </c>
       <c r="AD2" t="n">
-        <v>2202260.811393542</v>
+        <v>2505601.570278382</v>
       </c>
       <c r="AE2" t="n">
-        <v>3013230.399038826</v>
+        <v>3428274.607794884</v>
       </c>
       <c r="AF2" t="n">
         <v>3.287960216526656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.13151041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2725651.918849873</v>
+        <v>3101084.890840442</v>
       </c>
     </row>
     <row r="3">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1516.326971031129</v>
+        <v>1762.805463534019</v>
       </c>
       <c r="AB3" t="n">
-        <v>2074.705457389497</v>
+        <v>2411.948204695601</v>
       </c>
       <c r="AC3" t="n">
-        <v>1876.698480403641</v>
+        <v>2181.755253230018</v>
       </c>
       <c r="AD3" t="n">
-        <v>1516326.971031129</v>
+        <v>1762805.463534019</v>
       </c>
       <c r="AE3" t="n">
-        <v>2074705.457389497</v>
+        <v>2411948.204695601</v>
       </c>
       <c r="AF3" t="n">
         <v>4.16447327269731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.85026041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1876698.480403641</v>
+        <v>2181755.253230018</v>
       </c>
     </row>
     <row r="4">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1352.120437828885</v>
+        <v>1579.566470267112</v>
       </c>
       <c r="AB4" t="n">
-        <v>1850.030834381217</v>
+        <v>2161.232530173972</v>
       </c>
       <c r="AC4" t="n">
-        <v>1673.466488082457</v>
+        <v>1954.967530803075</v>
       </c>
       <c r="AD4" t="n">
-        <v>1352120.437828885</v>
+        <v>1579566.470267112</v>
       </c>
       <c r="AE4" t="n">
-        <v>1850030.834381217</v>
+        <v>2161232.530173972</v>
       </c>
       <c r="AF4" t="n">
         <v>4.471205015162268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.42578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1673466.488082457</v>
+        <v>1954967.530803075</v>
       </c>
     </row>
     <row r="5">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1263.273225318062</v>
+        <v>1481.338172854296</v>
       </c>
       <c r="AB5" t="n">
-        <v>1728.46615856153</v>
+        <v>2026.83224012712</v>
       </c>
       <c r="AC5" t="n">
-        <v>1563.503774305907</v>
+        <v>1833.394215806302</v>
       </c>
       <c r="AD5" t="n">
-        <v>1263273.225318062</v>
+        <v>1481338.172854296</v>
       </c>
       <c r="AE5" t="n">
-        <v>1728466.15856153</v>
+        <v>2026832.24012712</v>
       </c>
       <c r="AF5" t="n">
         <v>4.632542085523253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.81119791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1563503.774305907</v>
+        <v>1833394.215806302</v>
       </c>
     </row>
     <row r="6">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1205.67403286723</v>
+        <v>1423.704814984683</v>
       </c>
       <c r="AB6" t="n">
-        <v>1649.656402353271</v>
+        <v>1947.975737285613</v>
       </c>
       <c r="AC6" t="n">
-        <v>1492.215510619977</v>
+        <v>1762.063666920192</v>
       </c>
       <c r="AD6" t="n">
-        <v>1205674.03286723</v>
+        <v>1423704.814984682</v>
       </c>
       <c r="AE6" t="n">
-        <v>1649656.402353271</v>
+        <v>1947975.737285613</v>
       </c>
       <c r="AF6" t="n">
         <v>4.730109562856182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.88671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1492215.510619977</v>
+        <v>1762063.666920192</v>
       </c>
     </row>
     <row r="7">
@@ -11975,28 +11975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1170.905449167962</v>
+        <v>1379.420506768012</v>
       </c>
       <c r="AB7" t="n">
-        <v>1602.084492254276</v>
+        <v>1887.383993097771</v>
       </c>
       <c r="AC7" t="n">
-        <v>1449.183796853234</v>
+        <v>1707.25471375659</v>
       </c>
       <c r="AD7" t="n">
-        <v>1170905.449167962</v>
+        <v>1379420.506768012</v>
       </c>
       <c r="AE7" t="n">
-        <v>1602084.492254276</v>
+        <v>1887383.99309777</v>
       </c>
       <c r="AF7" t="n">
         <v>4.788777588441995e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.34635416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1449183.796853234</v>
+        <v>1707254.71375659</v>
       </c>
     </row>
     <row r="8">
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1130.591496501896</v>
+        <v>1348.588113200568</v>
       </c>
       <c r="AB8" t="n">
-        <v>1546.925163690495</v>
+        <v>1845.19775198959</v>
       </c>
       <c r="AC8" t="n">
-        <v>1399.288797190977</v>
+        <v>1669.094668291013</v>
       </c>
       <c r="AD8" t="n">
-        <v>1130591.496501896</v>
+        <v>1348588.113200568</v>
       </c>
       <c r="AE8" t="n">
-        <v>1546925.163690495</v>
+        <v>1845197.75198959</v>
       </c>
       <c r="AF8" t="n">
         <v>4.832778607631354e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.95572916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1399288.797190977</v>
+        <v>1669094.668291013</v>
       </c>
     </row>
     <row r="9">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1127.719407775404</v>
+        <v>1336.301785183159</v>
       </c>
       <c r="AB9" t="n">
-        <v>1542.995445187297</v>
+        <v>1828.387055961633</v>
       </c>
       <c r="AC9" t="n">
-        <v>1395.73412550633</v>
+        <v>1653.888361498004</v>
       </c>
       <c r="AD9" t="n">
-        <v>1127719.407775404</v>
+        <v>1336301.785183159</v>
       </c>
       <c r="AE9" t="n">
-        <v>1542995.445187297</v>
+        <v>1828387.055961633</v>
       </c>
       <c r="AF9" t="n">
         <v>4.83979326286444e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1395734.12550633</v>
+        <v>1653888.361498004</v>
       </c>
     </row>
     <row r="10">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1131.888560916502</v>
+        <v>1340.470938324257</v>
       </c>
       <c r="AB10" t="n">
-        <v>1548.699864445002</v>
+        <v>1834.091475219338</v>
       </c>
       <c r="AC10" t="n">
-        <v>1400.894122996282</v>
+        <v>1659.048358987957</v>
       </c>
       <c r="AD10" t="n">
-        <v>1131888.560916502</v>
+        <v>1340470.938324257</v>
       </c>
       <c r="AE10" t="n">
-        <v>1548699.864445002</v>
+        <v>1834091.475219338</v>
       </c>
       <c r="AF10" t="n">
         <v>4.840430958794721e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.88411458333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1400894.122996282</v>
+        <v>1659048.358987957</v>
       </c>
     </row>
   </sheetData>
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1292.269166853173</v>
+        <v>1541.984402177395</v>
       </c>
       <c r="AB2" t="n">
-        <v>1768.139684980526</v>
+        <v>2109.811086609792</v>
       </c>
       <c r="AC2" t="n">
-        <v>1599.390915045618</v>
+        <v>1908.453677642211</v>
       </c>
       <c r="AD2" t="n">
-        <v>1292269.166853173</v>
+        <v>1541984.402177395</v>
       </c>
       <c r="AE2" t="n">
-        <v>1768139.684980527</v>
+        <v>2109811.086609792</v>
       </c>
       <c r="AF2" t="n">
         <v>5.294093954425333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.86197916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1599390.915045618</v>
+        <v>1908453.677642211</v>
       </c>
     </row>
     <row r="3">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.165403148228</v>
+        <v>1241.842511318818</v>
       </c>
       <c r="AB3" t="n">
-        <v>1408.14950816057</v>
+        <v>1699.143710211388</v>
       </c>
       <c r="AC3" t="n">
-        <v>1273.757695451972</v>
+        <v>1536.979819271988</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029165.403148228</v>
+        <v>1241842.511318818</v>
       </c>
       <c r="AE3" t="n">
-        <v>1408149.50816057</v>
+        <v>1699143.710211388</v>
       </c>
       <c r="AF3" t="n">
         <v>6.061598414920323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.29296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1273757.695451972</v>
+        <v>1536979.819271988</v>
       </c>
     </row>
     <row r="4">
@@ -12802,28 +12802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>969.8699287583344</v>
+        <v>1173.329959156528</v>
       </c>
       <c r="AB4" t="n">
-        <v>1327.01882416861</v>
+        <v>1605.401813782463</v>
       </c>
       <c r="AC4" t="n">
-        <v>1200.370010072575</v>
+        <v>1452.184517870662</v>
       </c>
       <c r="AD4" t="n">
-        <v>969869.9287583344</v>
+        <v>1173329.959156528</v>
       </c>
       <c r="AE4" t="n">
-        <v>1327018.82416861</v>
+        <v>1605401.813782464</v>
       </c>
       <c r="AF4" t="n">
         <v>6.234497771405458e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.03645833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1200370.010072575</v>
+        <v>1452184.517870662</v>
       </c>
     </row>
     <row r="5">
@@ -12908,28 +12908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>975.0037465333079</v>
+        <v>1178.463776931502</v>
       </c>
       <c r="AB5" t="n">
-        <v>1334.043140136385</v>
+        <v>1612.426129750238</v>
       </c>
       <c r="AC5" t="n">
-        <v>1206.723935183074</v>
+        <v>1458.538442981161</v>
       </c>
       <c r="AD5" t="n">
-        <v>975003.7465333079</v>
+        <v>1178463.776931501</v>
       </c>
       <c r="AE5" t="n">
-        <v>1334043.140136385</v>
+        <v>1612426.129750238</v>
       </c>
       <c r="AF5" t="n">
         <v>6.235341182900507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.02994791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1206723.935183074</v>
+        <v>1458538.442981161</v>
       </c>
     </row>
   </sheetData>
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4018.438470686261</v>
+        <v>4435.752588671766</v>
       </c>
       <c r="AB2" t="n">
-        <v>5498.20479658672</v>
+        <v>6069.192383414051</v>
       </c>
       <c r="AC2" t="n">
-        <v>4973.463847579173</v>
+        <v>5489.957180505794</v>
       </c>
       <c r="AD2" t="n">
-        <v>4018438.470686261</v>
+        <v>4435752.588671766</v>
       </c>
       <c r="AE2" t="n">
-        <v>5498204.796586719</v>
+        <v>6069192.383414051</v>
       </c>
       <c r="AF2" t="n">
         <v>2.010641140474181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.35286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4973463.847579174</v>
+        <v>5489957.180505794</v>
       </c>
     </row>
     <row r="3">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2212.317064133247</v>
+        <v>2493.841830980443</v>
       </c>
       <c r="AB3" t="n">
-        <v>3026.989807687851</v>
+        <v>3412.184413684361</v>
       </c>
       <c r="AC3" t="n">
-        <v>2738.098148848886</v>
+        <v>3086.530322273099</v>
       </c>
       <c r="AD3" t="n">
-        <v>2212317.064133247</v>
+        <v>2493841.830980443</v>
       </c>
       <c r="AE3" t="n">
-        <v>3026989.807687851</v>
+        <v>3412184.413684361</v>
       </c>
       <c r="AF3" t="n">
         <v>2.955598716543919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.70572916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2738098.148848886</v>
+        <v>3086530.322273099</v>
       </c>
     </row>
     <row r="4">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1868.232581943353</v>
+        <v>2120.630562694069</v>
       </c>
       <c r="AB4" t="n">
-        <v>2556.198239219457</v>
+        <v>2901.540291495626</v>
       </c>
       <c r="AC4" t="n">
-        <v>2312.238266915113</v>
+        <v>2624.621358412659</v>
       </c>
       <c r="AD4" t="n">
-        <v>1868232.581943353</v>
+        <v>2120630.562694069</v>
       </c>
       <c r="AE4" t="n">
-        <v>2556198.239219457</v>
+        <v>2901540.291495626</v>
       </c>
       <c r="AF4" t="n">
         <v>3.306450576032628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.68359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2312238.266915113</v>
+        <v>2624621.358412659</v>
       </c>
     </row>
     <row r="5">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1713.697367968759</v>
+        <v>1956.352254601867</v>
       </c>
       <c r="AB5" t="n">
-        <v>2344.75634184694</v>
+        <v>2676.767462916423</v>
       </c>
       <c r="AC5" t="n">
-        <v>2120.976087467262</v>
+        <v>2421.300533122408</v>
       </c>
       <c r="AD5" t="n">
-        <v>1713697.367968759</v>
+        <v>1956352.254601867</v>
       </c>
       <c r="AE5" t="n">
-        <v>2344756.34184694</v>
+        <v>2676767.462916423</v>
       </c>
       <c r="AF5" t="n">
         <v>3.492301671080939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.98828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2120976.087467262</v>
+        <v>2421300.533122408</v>
       </c>
     </row>
     <row r="6">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1631.246050275773</v>
+        <v>1864.124688402349</v>
       </c>
       <c r="AB6" t="n">
-        <v>2231.942811483981</v>
+        <v>2550.577638049182</v>
       </c>
       <c r="AC6" t="n">
-        <v>2018.929322107359</v>
+        <v>2307.154088031966</v>
       </c>
       <c r="AD6" t="n">
-        <v>1631246.050275773</v>
+        <v>1864124.688402349</v>
       </c>
       <c r="AE6" t="n">
-        <v>2231942.811483981</v>
+        <v>2550577.638049182</v>
       </c>
       <c r="AF6" t="n">
         <v>3.6081368411249e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.4453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2018929.322107359</v>
+        <v>2307154.088031966</v>
       </c>
     </row>
     <row r="7">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1572.819124341901</v>
+        <v>1796.022999188432</v>
       </c>
       <c r="AB7" t="n">
-        <v>2152.000513807204</v>
+        <v>2457.397902432214</v>
       </c>
       <c r="AC7" t="n">
-        <v>1946.616605121135</v>
+        <v>2222.8672956037</v>
       </c>
       <c r="AD7" t="n">
-        <v>1572819.124341901</v>
+        <v>1796022.999188432</v>
       </c>
       <c r="AE7" t="n">
-        <v>2152000.513807204</v>
+        <v>2457397.902432214</v>
       </c>
       <c r="AF7" t="n">
         <v>3.686132522287834e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.46223958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1946616.605121135</v>
+        <v>2222867.2956037</v>
       </c>
     </row>
     <row r="8">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1523.764027507697</v>
+        <v>1747.035222161932</v>
       </c>
       <c r="AB8" t="n">
-        <v>2084.881166160512</v>
+        <v>2390.370664716364</v>
       </c>
       <c r="AC8" t="n">
-        <v>1885.903033811247</v>
+        <v>2162.237043382133</v>
       </c>
       <c r="AD8" t="n">
-        <v>1523764.027507697</v>
+        <v>1747035.222161932</v>
       </c>
       <c r="AE8" t="n">
-        <v>2084881.166160512</v>
+        <v>2390370.664716364</v>
       </c>
       <c r="AF8" t="n">
         <v>3.746624222199681e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.73307291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1885903.033811247</v>
+        <v>2162237.043382133</v>
       </c>
     </row>
     <row r="9">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1513.42083167078</v>
+        <v>1736.692026325014</v>
       </c>
       <c r="AB9" t="n">
-        <v>2070.729149306846</v>
+        <v>2376.218647862698</v>
       </c>
       <c r="AC9" t="n">
-        <v>1873.101665583614</v>
+        <v>2149.4356751545</v>
       </c>
       <c r="AD9" t="n">
-        <v>1513420.83167078</v>
+        <v>1736692.026325014</v>
       </c>
       <c r="AE9" t="n">
-        <v>2070729.149306846</v>
+        <v>2376218.647862698</v>
       </c>
       <c r="AF9" t="n">
         <v>3.757692916226103e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.59635416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1873101.665583614</v>
+        <v>2149435.6751545</v>
       </c>
     </row>
     <row r="10">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1465.422259310311</v>
+        <v>1688.659288545766</v>
       </c>
       <c r="AB10" t="n">
-        <v>2005.05538505569</v>
+        <v>2310.498136978294</v>
       </c>
       <c r="AC10" t="n">
-        <v>1813.695713218882</v>
+        <v>2089.987437589587</v>
       </c>
       <c r="AD10" t="n">
-        <v>1465422.259310311</v>
+        <v>1688659.288545765</v>
       </c>
       <c r="AE10" t="n">
-        <v>2005055.38505569</v>
+        <v>2310498.136978294</v>
       </c>
       <c r="AF10" t="n">
         <v>3.815867912737071e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.91927083333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1813695.713218882</v>
+        <v>2089987.437589587</v>
       </c>
     </row>
     <row r="11">
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1440.58521117366</v>
+        <v>1663.822240409114</v>
       </c>
       <c r="AB11" t="n">
-        <v>1971.072240061893</v>
+        <v>2276.514991984497</v>
       </c>
       <c r="AC11" t="n">
-        <v>1782.955871887649</v>
+        <v>2059.247596258354</v>
       </c>
       <c r="AD11" t="n">
-        <v>1440585.21117366</v>
+        <v>1663822.240409114</v>
       </c>
       <c r="AE11" t="n">
-        <v>1971072.240061893</v>
+        <v>2276514.991984497</v>
       </c>
       <c r="AF11" t="n">
         <v>3.847014702904447e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.56119791666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1782955.871887649</v>
+        <v>2059247.596258354</v>
       </c>
     </row>
     <row r="12">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1424.162828800745</v>
+        <v>1637.657774948449</v>
       </c>
       <c r="AB12" t="n">
-        <v>1948.602411994894</v>
+        <v>2240.715616046465</v>
       </c>
       <c r="AC12" t="n">
-        <v>1762.630532674762</v>
+        <v>2026.864862515108</v>
       </c>
       <c r="AD12" t="n">
-        <v>1424162.828800745</v>
+        <v>1637657.774948449</v>
       </c>
       <c r="AE12" t="n">
-        <v>1948602.411994894</v>
+        <v>2240715.616046465</v>
       </c>
       <c r="AF12" t="n">
         <v>3.866063153089454e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.34635416666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1762630.532674762</v>
+        <v>2026864.862515108</v>
       </c>
     </row>
     <row r="13">
@@ -14371,28 +14371,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1404.111733806395</v>
+        <v>1617.606679954099</v>
       </c>
       <c r="AB13" t="n">
-        <v>1921.167619231744</v>
+        <v>2213.280823283316</v>
       </c>
       <c r="AC13" t="n">
-        <v>1737.814078027955</v>
+        <v>2002.048407868301</v>
       </c>
       <c r="AD13" t="n">
-        <v>1404111.733806395</v>
+        <v>1617606.679954099</v>
       </c>
       <c r="AE13" t="n">
-        <v>1921167.619231744</v>
+        <v>2213280.823283316</v>
       </c>
       <c r="AF13" t="n">
         <v>3.88742830667534e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.11197916666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1737814.078027955</v>
+        <v>2002048.407868301</v>
       </c>
     </row>
     <row r="14">
@@ -14477,28 +14477,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1374.269751532347</v>
+        <v>1597.47261534902</v>
       </c>
       <c r="AB14" t="n">
-        <v>1880.33650254905</v>
+        <v>2185.732507838406</v>
       </c>
       <c r="AC14" t="n">
-        <v>1700.879825814625</v>
+        <v>1977.12926498515</v>
       </c>
       <c r="AD14" t="n">
-        <v>1374269.751532347</v>
+        <v>1597472.61534902</v>
       </c>
       <c r="AE14" t="n">
-        <v>1880336.50254905</v>
+        <v>2185732.507838406</v>
       </c>
       <c r="AF14" t="n">
         <v>3.904674876437441e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.91666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1700879.825814625</v>
+        <v>1977129.26498515</v>
       </c>
     </row>
     <row r="15">
@@ -14583,28 +14583,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1359.977807967316</v>
+        <v>1573.540073922724</v>
       </c>
       <c r="AB15" t="n">
-        <v>1860.781634847324</v>
+        <v>2152.986948829736</v>
       </c>
       <c r="AC15" t="n">
-        <v>1683.191247240921</v>
+        <v>1947.508896169586</v>
       </c>
       <c r="AD15" t="n">
-        <v>1359977.807967316</v>
+        <v>1573540.073922724</v>
       </c>
       <c r="AE15" t="n">
-        <v>1860781.634847324</v>
+        <v>2152986.948829736</v>
       </c>
       <c r="AF15" t="n">
         <v>3.913169455573999e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.82552083333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1683191.247240921</v>
+        <v>1947508.896169587</v>
       </c>
     </row>
     <row r="16">
@@ -14689,28 +14689,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1342.157041972209</v>
+        <v>1555.719307927617</v>
       </c>
       <c r="AB16" t="n">
-        <v>1836.39847661611</v>
+        <v>2128.603790598522</v>
       </c>
       <c r="AC16" t="n">
-        <v>1661.135183409318</v>
+        <v>1925.452832337982</v>
       </c>
       <c r="AD16" t="n">
-        <v>1342157.041972209</v>
+        <v>1555719.307927617</v>
       </c>
       <c r="AE16" t="n">
-        <v>1836398.47661611</v>
+        <v>2128603.790598522</v>
       </c>
       <c r="AF16" t="n">
         <v>3.930158613847112e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.64322916666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1661135.183409317</v>
+        <v>1925452.832337982</v>
       </c>
     </row>
     <row r="17">
@@ -14795,28 +14795,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1332.987926687539</v>
+        <v>1546.550192642947</v>
       </c>
       <c r="AB17" t="n">
-        <v>1823.852888570807</v>
+        <v>2116.05820255322</v>
       </c>
       <c r="AC17" t="n">
-        <v>1649.786928679215</v>
+        <v>1914.10457760788</v>
       </c>
       <c r="AD17" t="n">
-        <v>1332987.926687539</v>
+        <v>1546550.192642947</v>
       </c>
       <c r="AE17" t="n">
-        <v>1823852.888570807</v>
+        <v>2116058.20255322</v>
       </c>
       <c r="AF17" t="n">
         <v>3.930930848314072e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.63020833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1649786.928679215</v>
+        <v>1914104.57760788</v>
       </c>
     </row>
     <row r="18">
@@ -14901,28 +14901,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1331.962160760749</v>
+        <v>1545.524426716157</v>
       </c>
       <c r="AB18" t="n">
-        <v>1822.449390376174</v>
+        <v>2114.654704358587</v>
       </c>
       <c r="AC18" t="n">
-        <v>1648.517378382455</v>
+        <v>1912.83502731112</v>
       </c>
       <c r="AD18" t="n">
-        <v>1331962.160760749</v>
+        <v>1545524.426716157</v>
       </c>
       <c r="AE18" t="n">
-        <v>1822449.390376174</v>
+        <v>2114654.704358587</v>
       </c>
       <c r="AF18" t="n">
         <v>3.935821666604817e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.57812500000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>1648517.378382456</v>
+        <v>1912835.02731112</v>
       </c>
     </row>
     <row r="19">
@@ -15007,28 +15007,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1336.223679636178</v>
+        <v>1549.785945591586</v>
       </c>
       <c r="AB19" t="n">
-        <v>1828.28018850648</v>
+        <v>2120.485502488893</v>
       </c>
       <c r="AC19" t="n">
-        <v>1653.791693322782</v>
+        <v>1918.109342251447</v>
       </c>
       <c r="AD19" t="n">
-        <v>1336223.679636178</v>
+        <v>1549785.945591586</v>
       </c>
       <c r="AE19" t="n">
-        <v>1828280.18850648</v>
+        <v>2120485.502488893</v>
       </c>
       <c r="AF19" t="n">
         <v>3.934792020648871e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.59114583333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1653791.693322782</v>
+        <v>1918109.342251447</v>
       </c>
     </row>
   </sheetData>
@@ -15304,28 +15304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1120.537489200274</v>
+        <v>1359.396635804054</v>
       </c>
       <c r="AB2" t="n">
-        <v>1533.168827348919</v>
+        <v>1859.986449454042</v>
       </c>
       <c r="AC2" t="n">
-        <v>1386.845346282701</v>
+        <v>1682.471953225526</v>
       </c>
       <c r="AD2" t="n">
-        <v>1120537.489200274</v>
+        <v>1359396.635804054</v>
       </c>
       <c r="AE2" t="n">
-        <v>1533168.827348919</v>
+        <v>1859986.449454043</v>
       </c>
       <c r="AF2" t="n">
         <v>6.055724945189492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1386845.346282701</v>
+        <v>1682471.953225526</v>
       </c>
     </row>
     <row r="3">
@@ -15410,28 +15410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>926.1763776368286</v>
+        <v>1137.501134570003</v>
       </c>
       <c r="AB3" t="n">
-        <v>1267.235379900736</v>
+        <v>1556.379235326997</v>
       </c>
       <c r="AC3" t="n">
-        <v>1146.292213819035</v>
+        <v>1407.840585499364</v>
       </c>
       <c r="AD3" t="n">
-        <v>926176.3776368287</v>
+        <v>1137501.134570003</v>
       </c>
       <c r="AE3" t="n">
-        <v>1267235.379900736</v>
+        <v>1556379.235326997</v>
       </c>
       <c r="AF3" t="n">
         <v>6.720175106807357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.70052083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1146292.213819035</v>
+        <v>1407840.585499364</v>
       </c>
     </row>
     <row r="4">
@@ -15516,28 +15516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>930.3328573474525</v>
+        <v>1141.657614280627</v>
       </c>
       <c r="AB4" t="n">
-        <v>1272.922458811754</v>
+        <v>1562.066314238016</v>
       </c>
       <c r="AC4" t="n">
-        <v>1151.436525900651</v>
+        <v>1412.98489758098</v>
       </c>
       <c r="AD4" t="n">
-        <v>930332.8573474525</v>
+        <v>1141657.614280627</v>
       </c>
       <c r="AE4" t="n">
-        <v>1272922.458811754</v>
+        <v>1562066.314238016</v>
       </c>
       <c r="AF4" t="n">
         <v>6.725712191487506e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.66796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1151436.525900651</v>
+        <v>1412984.89758098</v>
       </c>
     </row>
   </sheetData>
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2860.072727053527</v>
+        <v>3214.742650790128</v>
       </c>
       <c r="AB2" t="n">
-        <v>3913.277682658415</v>
+        <v>4398.552719247591</v>
       </c>
       <c r="AC2" t="n">
-        <v>3539.799952945071</v>
+        <v>3978.761021129949</v>
       </c>
       <c r="AD2" t="n">
-        <v>2860072.727053527</v>
+        <v>3214742.650790128</v>
       </c>
       <c r="AE2" t="n">
-        <v>3913277.682658415</v>
+        <v>4398552.719247591</v>
       </c>
       <c r="AF2" t="n">
         <v>2.633373941909739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3539799.952945071</v>
+        <v>3978761.021129949</v>
       </c>
     </row>
     <row r="3">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1803.592393564121</v>
+        <v>2062.446210302352</v>
       </c>
       <c r="AB3" t="n">
-        <v>2467.754681755144</v>
+        <v>2821.929893640816</v>
       </c>
       <c r="AC3" t="n">
-        <v>2232.235638443882</v>
+        <v>2552.608865195217</v>
       </c>
       <c r="AD3" t="n">
-        <v>1803592.393564121</v>
+        <v>2062446.210302352</v>
       </c>
       <c r="AE3" t="n">
-        <v>2467754.681755144</v>
+        <v>2821929.893640816</v>
       </c>
       <c r="AF3" t="n">
         <v>3.547210057684102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.64322916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2232235.638443882</v>
+        <v>2552608.865195217</v>
       </c>
     </row>
     <row r="4">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1574.606284868274</v>
+        <v>1804.661615866802</v>
       </c>
       <c r="AB4" t="n">
-        <v>2154.445785683345</v>
+        <v>2469.217638880432</v>
       </c>
       <c r="AC4" t="n">
-        <v>1948.828503681377</v>
+        <v>2233.558972994405</v>
       </c>
       <c r="AD4" t="n">
-        <v>1574606.284868274</v>
+        <v>1804661.615866802</v>
       </c>
       <c r="AE4" t="n">
-        <v>2154445.785683345</v>
+        <v>2469217.638880432</v>
       </c>
       <c r="AF4" t="n">
         <v>3.877063018494057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.1640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1948828.503681377</v>
+        <v>2233558.972994405</v>
       </c>
     </row>
     <row r="5">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1468.359171749365</v>
+        <v>1688.826058964301</v>
       </c>
       <c r="AB5" t="n">
-        <v>2009.073798222236</v>
+        <v>2310.726319622327</v>
       </c>
       <c r="AC5" t="n">
-        <v>1817.330614672691</v>
+        <v>2090.19384280233</v>
       </c>
       <c r="AD5" t="n">
-        <v>1468359.171749366</v>
+        <v>1688826.058964301</v>
       </c>
       <c r="AE5" t="n">
-        <v>2009073.798222236</v>
+        <v>2310726.319622327</v>
       </c>
       <c r="AF5" t="n">
         <v>4.044570956853199e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1817330.614672691</v>
+        <v>2090193.842802329</v>
       </c>
     </row>
     <row r="6">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1393.122747048919</v>
+        <v>1623.14290159881</v>
       </c>
       <c r="AB6" t="n">
-        <v>1906.132002750285</v>
+        <v>2220.85572597847</v>
       </c>
       <c r="AC6" t="n">
-        <v>1724.213439680866</v>
+        <v>2008.900372481673</v>
       </c>
       <c r="AD6" t="n">
-        <v>1393122.747048919</v>
+        <v>1623142.90159881</v>
       </c>
       <c r="AE6" t="n">
-        <v>1906132.002750285</v>
+        <v>2220855.72597847</v>
       </c>
       <c r="AF6" t="n">
         <v>4.151844876281829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.97395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1724213.439680866</v>
+        <v>2008900.372481673</v>
       </c>
     </row>
     <row r="7">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1351.840024045443</v>
+        <v>1562.718467476786</v>
       </c>
       <c r="AB7" t="n">
-        <v>1849.647159871729</v>
+        <v>2138.180349474823</v>
       </c>
       <c r="AC7" t="n">
-        <v>1673.119430929664</v>
+        <v>1934.115417875913</v>
       </c>
       <c r="AD7" t="n">
-        <v>1351840.024045443</v>
+        <v>1562718.467476786</v>
       </c>
       <c r="AE7" t="n">
-        <v>1849647.159871729</v>
+        <v>2138180.349474823</v>
       </c>
       <c r="AF7" t="n">
         <v>4.226133499629462e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.18619791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1673119.430929664</v>
+        <v>1934115.417875913</v>
       </c>
     </row>
     <row r="8">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1316.439015223335</v>
+        <v>1536.904891408414</v>
       </c>
       <c r="AB8" t="n">
-        <v>1801.209937819036</v>
+        <v>2102.861075883472</v>
       </c>
       <c r="AC8" t="n">
-        <v>1629.304989367612</v>
+        <v>1902.16696618521</v>
       </c>
       <c r="AD8" t="n">
-        <v>1316439.015223335</v>
+        <v>1536904.891408414</v>
       </c>
       <c r="AE8" t="n">
-        <v>1801209.937819036</v>
+        <v>2102861.075883472</v>
       </c>
       <c r="AF8" t="n">
         <v>4.263134396972491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.80208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1629304.989367612</v>
+        <v>1902166.96618521</v>
       </c>
     </row>
     <row r="9">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1285.37268038624</v>
+        <v>1496.216958398802</v>
       </c>
       <c r="AB9" t="n">
-        <v>1758.703607944958</v>
+        <v>2047.190050914804</v>
       </c>
       <c r="AC9" t="n">
-        <v>1590.855403958707</v>
+        <v>1851.809105704776</v>
       </c>
       <c r="AD9" t="n">
-        <v>1285372.68038624</v>
+        <v>1496216.958398802</v>
       </c>
       <c r="AE9" t="n">
-        <v>1758703.607944958</v>
+        <v>2047190.050914804</v>
       </c>
       <c r="AF9" t="n">
         <v>4.309600640147459e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1590855.403958707</v>
+        <v>1851809.105704776</v>
       </c>
     </row>
     <row r="10">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1258.062068866215</v>
+        <v>1468.906346878777</v>
       </c>
       <c r="AB10" t="n">
-        <v>1721.336024404115</v>
+        <v>2009.82246737396</v>
       </c>
       <c r="AC10" t="n">
-        <v>1557.054130145269</v>
+        <v>1818.007831891338</v>
       </c>
       <c r="AD10" t="n">
-        <v>1258062.068866215</v>
+        <v>1468906.346878777</v>
       </c>
       <c r="AE10" t="n">
-        <v>1721336.024404115</v>
+        <v>2009822.46737396</v>
       </c>
       <c r="AF10" t="n">
         <v>4.342012278905307e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.0078125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1557054.130145269</v>
+        <v>1818007.831891338</v>
       </c>
     </row>
     <row r="11">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1224.135362242739</v>
+        <v>1435.046960063006</v>
       </c>
       <c r="AB11" t="n">
-        <v>1674.916007661214</v>
+        <v>1963.494560561901</v>
       </c>
       <c r="AC11" t="n">
-        <v>1515.064374649408</v>
+        <v>1776.101395483796</v>
       </c>
       <c r="AD11" t="n">
-        <v>1224135.362242739</v>
+        <v>1435046.960063006</v>
       </c>
       <c r="AE11" t="n">
-        <v>1674916.007661214</v>
+        <v>1963494.560561901</v>
       </c>
       <c r="AF11" t="n">
         <v>4.366966372462234e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.76041666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1515064.374649408</v>
+        <v>1776101.395483796</v>
       </c>
     </row>
     <row r="12">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1215.072883533165</v>
+        <v>1425.984481353431</v>
       </c>
       <c r="AB12" t="n">
-        <v>1662.516324482431</v>
+        <v>1951.094877383118</v>
       </c>
       <c r="AC12" t="n">
-        <v>1503.848099830143</v>
+        <v>1764.885120664531</v>
       </c>
       <c r="AD12" t="n">
-        <v>1215072.883533165</v>
+        <v>1425984.481353431</v>
       </c>
       <c r="AE12" t="n">
-        <v>1662516.324482431</v>
+        <v>1951094.877383118</v>
       </c>
       <c r="AF12" t="n">
         <v>4.378726347586763e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.64973958333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1503848.099830143</v>
+        <v>1764885.120664531</v>
       </c>
     </row>
     <row r="13">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1218.476223858512</v>
+        <v>1429.387821678779</v>
       </c>
       <c r="AB13" t="n">
-        <v>1667.172924860349</v>
+        <v>1955.751477761036</v>
       </c>
       <c r="AC13" t="n">
-        <v>1508.060280803573</v>
+        <v>1769.097301637961</v>
       </c>
       <c r="AD13" t="n">
-        <v>1218476.223858512</v>
+        <v>1429387.821678779</v>
       </c>
       <c r="AE13" t="n">
-        <v>1667172.924860349</v>
+        <v>1955751.477761036</v>
       </c>
       <c r="AF13" t="n">
         <v>4.378439518925189e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.64973958333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1508060.280803573</v>
+        <v>1769097.301637961</v>
       </c>
     </row>
   </sheetData>
@@ -17276,28 +17276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3394.17918117872</v>
+        <v>3780.120302259576</v>
       </c>
       <c r="AB2" t="n">
-        <v>4644.065696306301</v>
+        <v>5172.12736468975</v>
       </c>
       <c r="AC2" t="n">
-        <v>4200.842584237795</v>
+        <v>4678.506788129913</v>
       </c>
       <c r="AD2" t="n">
-        <v>3394179.18117872</v>
+        <v>3780120.302259577</v>
       </c>
       <c r="AE2" t="n">
-        <v>4644065.696306301</v>
+        <v>5172127.36468975</v>
       </c>
       <c r="AF2" t="n">
         <v>2.294259446341351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.82942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4200842.584237794</v>
+        <v>4678506.788129913</v>
       </c>
     </row>
     <row r="3">
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2003.205069909802</v>
+        <v>2273.401436627063</v>
       </c>
       <c r="AB3" t="n">
-        <v>2740.873551821069</v>
+        <v>3110.568140986215</v>
       </c>
       <c r="AC3" t="n">
-        <v>2479.288426875456</v>
+        <v>2813.699883320178</v>
       </c>
       <c r="AD3" t="n">
-        <v>2003205.069909802</v>
+        <v>2273401.436627063</v>
       </c>
       <c r="AE3" t="n">
-        <v>2740873.551821069</v>
+        <v>3110568.140986215</v>
       </c>
       <c r="AF3" t="n">
         <v>3.227233018691162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.61588541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2479288.426875456</v>
+        <v>2813699.883320178</v>
       </c>
     </row>
     <row r="4">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1719.789531764289</v>
+        <v>1960.965307373553</v>
       </c>
       <c r="AB4" t="n">
-        <v>2353.091909119282</v>
+        <v>2683.079245232168</v>
       </c>
       <c r="AC4" t="n">
-        <v>2128.516119898174</v>
+        <v>2427.009927792581</v>
       </c>
       <c r="AD4" t="n">
-        <v>1719789.531764289</v>
+        <v>1960965.307373553</v>
       </c>
       <c r="AE4" t="n">
-        <v>2353091.909119282</v>
+        <v>2683079.245232168</v>
       </c>
       <c r="AF4" t="n">
         <v>3.568366710264221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.39453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2128516.119898174</v>
+        <v>2427009.927792581</v>
       </c>
     </row>
     <row r="5">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1582.943334527923</v>
+        <v>1824.118099107329</v>
       </c>
       <c r="AB5" t="n">
-        <v>2165.85290483235</v>
+        <v>2495.838857609582</v>
       </c>
       <c r="AC5" t="n">
-        <v>1959.146943388793</v>
+        <v>2257.63949997116</v>
       </c>
       <c r="AD5" t="n">
-        <v>1582943.334527923</v>
+        <v>1824118.099107329</v>
       </c>
       <c r="AE5" t="n">
-        <v>2165852.90483235</v>
+        <v>2495838.857609582</v>
       </c>
       <c r="AF5" t="n">
         <v>3.751116902178359e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.9921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1959146.943388793</v>
+        <v>2257639.49997116</v>
       </c>
     </row>
     <row r="6">
@@ -17700,28 +17700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1512.380146033322</v>
+        <v>1743.93798559808</v>
       </c>
       <c r="AB6" t="n">
-        <v>2069.305237305868</v>
+        <v>2386.132889009268</v>
       </c>
       <c r="AC6" t="n">
-        <v>1871.813649745536</v>
+        <v>2158.403715040766</v>
       </c>
       <c r="AD6" t="n">
-        <v>1512380.146033322</v>
+        <v>1743937.98559808</v>
       </c>
       <c r="AE6" t="n">
-        <v>2069305.237305867</v>
+        <v>2386132.889009268</v>
       </c>
       <c r="AF6" t="n">
         <v>3.856976642976031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.69661458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1871813.649745536</v>
+        <v>2158403.715040766</v>
       </c>
     </row>
     <row r="7">
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1458.98772791715</v>
+        <v>1680.928642467258</v>
       </c>
       <c r="AB7" t="n">
-        <v>1996.251375332077</v>
+        <v>2299.920725961646</v>
       </c>
       <c r="AC7" t="n">
-        <v>1805.731945826785</v>
+        <v>2080.419519834878</v>
       </c>
       <c r="AD7" t="n">
-        <v>1458987.72791715</v>
+        <v>1680928.642467258</v>
       </c>
       <c r="AE7" t="n">
-        <v>1996251.375332077</v>
+        <v>2299920.725961646</v>
       </c>
       <c r="AF7" t="n">
         <v>3.931971906917092e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.83072916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1805731.945826785</v>
+        <v>2080419.519834878</v>
       </c>
     </row>
     <row r="8">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1401.189335497084</v>
+        <v>1623.096084628411</v>
       </c>
       <c r="AB8" t="n">
-        <v>1917.16906493783</v>
+        <v>2220.791668934151</v>
       </c>
       <c r="AC8" t="n">
-        <v>1734.197140143845</v>
+        <v>2008.842428951759</v>
       </c>
       <c r="AD8" t="n">
-        <v>1401189.335497084</v>
+        <v>1623096.084628411</v>
       </c>
       <c r="AE8" t="n">
-        <v>1917169.06493783</v>
+        <v>2220791.668934151</v>
       </c>
       <c r="AF8" t="n">
         <v>4.013735696484603e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.91927083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1734197.140143845</v>
+        <v>2008842.428951759</v>
       </c>
     </row>
     <row r="9">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1390.274527893326</v>
+        <v>1612.181277024653</v>
       </c>
       <c r="AB9" t="n">
-        <v>1902.234943647042</v>
+        <v>2205.857547643363</v>
       </c>
       <c r="AC9" t="n">
-        <v>1720.688310428879</v>
+        <v>1995.333599236792</v>
       </c>
       <c r="AD9" t="n">
-        <v>1390274.527893326</v>
+        <v>1612181.277024653</v>
       </c>
       <c r="AE9" t="n">
-        <v>1902234.943647041</v>
+        <v>2205857.547643363</v>
       </c>
       <c r="AF9" t="n">
         <v>4.022128668261401e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.82161458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1720688.310428879</v>
+        <v>1995333.599236792</v>
       </c>
     </row>
     <row r="10">
@@ -18124,28 +18124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1364.238741255686</v>
+        <v>1576.461245564659</v>
       </c>
       <c r="AB10" t="n">
-        <v>1866.611631751581</v>
+        <v>2156.98382474323</v>
       </c>
       <c r="AC10" t="n">
-        <v>1688.464837423089</v>
+        <v>1951.124315855547</v>
       </c>
       <c r="AD10" t="n">
-        <v>1364238.741255686</v>
+        <v>1576461.245564659</v>
       </c>
       <c r="AE10" t="n">
-        <v>1866611.631751581</v>
+        <v>2156983.82474323</v>
       </c>
       <c r="AF10" t="n">
         <v>4.058407965619171e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.43098958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1688464.837423089</v>
+        <v>1951124.315855547</v>
       </c>
     </row>
     <row r="11">
@@ -18230,28 +18230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1343.76809433546</v>
+        <v>1555.990598644433</v>
       </c>
       <c r="AB11" t="n">
-        <v>1838.602789534124</v>
+        <v>2128.974982525772</v>
       </c>
       <c r="AC11" t="n">
-        <v>1663.129119796208</v>
+        <v>1925.788598228666</v>
       </c>
       <c r="AD11" t="n">
-        <v>1343768.09433546</v>
+        <v>1555990.598644433</v>
       </c>
       <c r="AE11" t="n">
-        <v>1838602.789534124</v>
+        <v>2128974.982525772</v>
       </c>
       <c r="AF11" t="n">
         <v>4.081962434799215e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.18359375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1663129.119796208</v>
+        <v>1925788.598228666</v>
       </c>
     </row>
     <row r="12">
@@ -18336,28 +18336,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1310.875321421368</v>
+        <v>1532.747905133914</v>
       </c>
       <c r="AB12" t="n">
-        <v>1793.597446506338</v>
+        <v>2097.173303869411</v>
       </c>
       <c r="AC12" t="n">
-        <v>1622.419023541599</v>
+        <v>1897.022027149332</v>
       </c>
       <c r="AD12" t="n">
-        <v>1310875.321421368</v>
+        <v>1532747.905133914</v>
       </c>
       <c r="AE12" t="n">
-        <v>1793597.446506338</v>
+        <v>2097173.303869411</v>
       </c>
       <c r="AF12" t="n">
         <v>4.103350975778796e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.95572916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1622419.023541599</v>
+        <v>1897022.027149332</v>
       </c>
     </row>
     <row r="13">
@@ -18442,28 +18442,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1291.386362010684</v>
+        <v>1503.676186127362</v>
       </c>
       <c r="AB13" t="n">
-        <v>1766.931792448432</v>
+        <v>2057.396095370922</v>
       </c>
       <c r="AC13" t="n">
-        <v>1598.298302081499</v>
+        <v>1861.041099602277</v>
       </c>
       <c r="AD13" t="n">
-        <v>1291386.362010684</v>
+        <v>1503676.186127362</v>
       </c>
       <c r="AE13" t="n">
-        <v>1766931.792448432</v>
+        <v>2057396.095370922</v>
       </c>
       <c r="AF13" t="n">
         <v>4.121219883432623e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.7734375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1598298.302081499</v>
+        <v>1861041.099602277</v>
       </c>
     </row>
     <row r="14">
@@ -18548,28 +18548,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1275.851616331114</v>
+        <v>1488.141440447791</v>
       </c>
       <c r="AB14" t="n">
-        <v>1745.676468065033</v>
+        <v>2036.140770987523</v>
       </c>
       <c r="AC14" t="n">
-        <v>1579.071556025217</v>
+        <v>1841.814353545994</v>
       </c>
       <c r="AD14" t="n">
-        <v>1275851.616331114</v>
+        <v>1488141.440447791</v>
       </c>
       <c r="AE14" t="n">
-        <v>1745676.468065033</v>
+        <v>2036140.770987523</v>
       </c>
       <c r="AF14" t="n">
         <v>4.134486193660464e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.63020833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1579071.556025217</v>
+        <v>1841814.353545994</v>
       </c>
     </row>
     <row r="15">
@@ -18654,28 +18654,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1275.14142992279</v>
+        <v>1487.431254039469</v>
       </c>
       <c r="AB15" t="n">
-        <v>1744.704759689952</v>
+        <v>2035.169062612443</v>
       </c>
       <c r="AC15" t="n">
-        <v>1578.192586133653</v>
+        <v>1840.93538365443</v>
       </c>
       <c r="AD15" t="n">
-        <v>1275141.42992279</v>
+        <v>1487431.254039468</v>
       </c>
       <c r="AE15" t="n">
-        <v>1744704.759689952</v>
+        <v>2035169.062612443</v>
       </c>
       <c r="AF15" t="n">
         <v>4.134215452635406e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.63671874999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>1578192.586133653</v>
+        <v>1840935.38365443</v>
       </c>
     </row>
     <row r="16">
@@ -18760,28 +18760,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1275.536227140226</v>
+        <v>1487.826051256904</v>
       </c>
       <c r="AB16" t="n">
-        <v>1745.244938660072</v>
+        <v>2035.709241582562</v>
       </c>
       <c r="AC16" t="n">
-        <v>1578.68121118101</v>
+        <v>1841.424008701787</v>
       </c>
       <c r="AD16" t="n">
-        <v>1275536.227140226</v>
+        <v>1487826.051256904</v>
       </c>
       <c r="AE16" t="n">
-        <v>1745244.938660072</v>
+        <v>2035709.241582562</v>
       </c>
       <c r="AF16" t="n">
         <v>4.140983978261856e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.56510416666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1578681.21118101</v>
+        <v>1841424.008701787</v>
       </c>
     </row>
   </sheetData>
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4763.342752418337</v>
+        <v>5222.09350007024</v>
       </c>
       <c r="AB2" t="n">
-        <v>6517.415697710168</v>
+        <v>7145.098709302154</v>
       </c>
       <c r="AC2" t="n">
-        <v>5895.402690770846</v>
+        <v>6463.180516695109</v>
       </c>
       <c r="AD2" t="n">
-        <v>4763342.752418337</v>
+        <v>5222093.50007024</v>
       </c>
       <c r="AE2" t="n">
-        <v>6517415.697710169</v>
+        <v>7145098.709302154</v>
       </c>
       <c r="AF2" t="n">
         <v>1.764173771163848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5895402.690770846</v>
+        <v>6463180.516695109</v>
       </c>
     </row>
     <row r="3">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2434.212652623805</v>
+        <v>2736.75804064737</v>
       </c>
       <c r="AB3" t="n">
-        <v>3330.597141203117</v>
+        <v>3744.553088457492</v>
       </c>
       <c r="AC3" t="n">
-        <v>3012.729624569012</v>
+        <v>3387.178197208235</v>
       </c>
       <c r="AD3" t="n">
-        <v>2434212.652623805</v>
+        <v>2736758.04064737</v>
       </c>
       <c r="AE3" t="n">
-        <v>3330597.141203117</v>
+        <v>3744553.088457492</v>
       </c>
       <c r="AF3" t="n">
         <v>2.719603818549181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.91927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3012729.624569012</v>
+        <v>3387178.197208235</v>
       </c>
     </row>
     <row r="4">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2018.5108676424</v>
+        <v>2282.039081177663</v>
       </c>
       <c r="AB4" t="n">
-        <v>2761.815619522949</v>
+        <v>3122.386547326331</v>
       </c>
       <c r="AC4" t="n">
-        <v>2498.231813028245</v>
+        <v>2824.390357546431</v>
       </c>
       <c r="AD4" t="n">
-        <v>2018510.8676424</v>
+        <v>2282039.081177664</v>
       </c>
       <c r="AE4" t="n">
-        <v>2761815.619522949</v>
+        <v>3122386.547326331</v>
       </c>
       <c r="AF4" t="n">
         <v>3.081643385706271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.9921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2498231.813028245</v>
+        <v>2824390.357546431</v>
       </c>
     </row>
     <row r="5">
@@ -19375,28 +19375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1843.381808939999</v>
+        <v>2097.113022079708</v>
       </c>
       <c r="AB5" t="n">
-        <v>2522.196315257539</v>
+        <v>2869.36255490639</v>
       </c>
       <c r="AC5" t="n">
-        <v>2281.48143885412</v>
+        <v>2595.514619841763</v>
       </c>
       <c r="AD5" t="n">
-        <v>1843381.808939999</v>
+        <v>2097113.022079708</v>
       </c>
       <c r="AE5" t="n">
-        <v>2522196.315257539</v>
+        <v>2869362.554906391</v>
       </c>
       <c r="AF5" t="n">
         <v>3.273123183971544e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.95833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2281481.43885412</v>
+        <v>2595514.619841763</v>
       </c>
     </row>
     <row r="6">
@@ -19481,28 +19481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1751.017434150214</v>
+        <v>1985.223988366237</v>
       </c>
       <c r="AB6" t="n">
-        <v>2395.819302841525</v>
+        <v>2716.271042783831</v>
       </c>
       <c r="AC6" t="n">
-        <v>2167.16567113184</v>
+        <v>2457.033946770895</v>
       </c>
       <c r="AD6" t="n">
-        <v>1751017.434150214</v>
+        <v>1985223.988366237</v>
       </c>
       <c r="AE6" t="n">
-        <v>2395819.302841526</v>
+        <v>2716271.042783831</v>
       </c>
       <c r="AF6" t="n">
         <v>3.391752056418666e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.24609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2167165.67113184</v>
+        <v>2457033.946770894</v>
       </c>
     </row>
     <row r="7">
@@ -19587,28 +19587,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1685.214310111269</v>
+        <v>1909.692194769302</v>
       </c>
       <c r="AB7" t="n">
-        <v>2305.784565502494</v>
+        <v>2612.925110556949</v>
       </c>
       <c r="AC7" t="n">
-        <v>2085.723722759899</v>
+        <v>2363.551205268818</v>
       </c>
       <c r="AD7" t="n">
-        <v>1685214.310111269</v>
+        <v>1909692.194769302</v>
       </c>
       <c r="AE7" t="n">
-        <v>2305784.565502495</v>
+        <v>2612925.110556949</v>
       </c>
       <c r="AF7" t="n">
         <v>3.475432173912486e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.10677083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2085723.722759899</v>
+        <v>2363551.205268818</v>
       </c>
     </row>
     <row r="8">
@@ -19693,28 +19693,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1634.788733609852</v>
+        <v>1859.232452849104</v>
       </c>
       <c r="AB8" t="n">
-        <v>2236.790067113826</v>
+        <v>2543.883865535032</v>
       </c>
       <c r="AC8" t="n">
-        <v>2023.313962463058</v>
+        <v>2301.099159771797</v>
       </c>
       <c r="AD8" t="n">
-        <v>1634788.733609852</v>
+        <v>1859232.452849104</v>
       </c>
       <c r="AE8" t="n">
-        <v>2236790.067113826</v>
+        <v>2543883.865535032</v>
       </c>
       <c r="AF8" t="n">
         <v>3.535238846121306e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.32552083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2023313.962463058</v>
+        <v>2301099.159771797</v>
       </c>
     </row>
     <row r="9">
@@ -19799,28 +19799,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1588.886166880567</v>
+        <v>1813.397205927524</v>
       </c>
       <c r="AB9" t="n">
-        <v>2173.984150236497</v>
+        <v>2481.170058588545</v>
       </c>
       <c r="AC9" t="n">
-        <v>1966.502154143844</v>
+        <v>2244.370670540902</v>
       </c>
       <c r="AD9" t="n">
-        <v>1588886.166880567</v>
+        <v>1813397.205927524</v>
       </c>
       <c r="AE9" t="n">
-        <v>2173984.150236497</v>
+        <v>2481170.058588545</v>
       </c>
       <c r="AF9" t="n">
         <v>3.586923624573372e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.66796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1966502.154143844</v>
+        <v>2244370.670540902</v>
       </c>
     </row>
     <row r="10">
@@ -19905,28 +19905,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1574.639149182306</v>
+        <v>1799.048703002778</v>
       </c>
       <c r="AB10" t="n">
-        <v>2154.490752087675</v>
+        <v>2461.537803875634</v>
       </c>
       <c r="AC10" t="n">
-        <v>1948.869178555189</v>
+        <v>2226.612090663749</v>
       </c>
       <c r="AD10" t="n">
-        <v>1574639.149182306</v>
+        <v>1799048.703002777</v>
       </c>
       <c r="AE10" t="n">
-        <v>2154490.752087675</v>
+        <v>2461537.803875634</v>
       </c>
       <c r="AF10" t="n">
         <v>3.604398002050023e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1948869.178555189</v>
+        <v>2226612.090663749</v>
       </c>
     </row>
     <row r="11">
@@ -20011,28 +20011,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1547.25038658433</v>
+        <v>1761.965436265592</v>
       </c>
       <c r="AB11" t="n">
-        <v>2117.016238794197</v>
+        <v>2410.798842327551</v>
       </c>
       <c r="AC11" t="n">
-        <v>1914.971180214631</v>
+        <v>2180.715584393236</v>
       </c>
       <c r="AD11" t="n">
-        <v>1547250.386584331</v>
+        <v>1761965.436265592</v>
       </c>
       <c r="AE11" t="n">
-        <v>2117016.238794197</v>
+        <v>2410798.842327551</v>
       </c>
       <c r="AF11" t="n">
         <v>3.641315700944355e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.00390625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1914971.180214631</v>
+        <v>2180715.584393236</v>
       </c>
     </row>
     <row r="12">
@@ -20117,28 +20117,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1519.276369240827</v>
+        <v>1743.753242869003</v>
       </c>
       <c r="AB12" t="n">
-        <v>2078.74095413827</v>
+        <v>2385.880115857071</v>
       </c>
       <c r="AC12" t="n">
-        <v>1880.348835006567</v>
+        <v>2158.175066203446</v>
       </c>
       <c r="AD12" t="n">
-        <v>1519276.369240827</v>
+        <v>1743753.242869003</v>
       </c>
       <c r="AE12" t="n">
-        <v>2078740.954138271</v>
+        <v>2385880.115857071</v>
       </c>
       <c r="AF12" t="n">
         <v>3.661743494332553e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.75651041666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1880348.835006566</v>
+        <v>2158175.066203446</v>
       </c>
     </row>
     <row r="13">
@@ -20223,28 +20223,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1500.984678586994</v>
+        <v>1715.76704807596</v>
       </c>
       <c r="AB13" t="n">
-        <v>2053.713456013258</v>
+        <v>2347.588169477454</v>
       </c>
       <c r="AC13" t="n">
-        <v>1857.709926176291</v>
+        <v>2123.537649443215</v>
       </c>
       <c r="AD13" t="n">
-        <v>1500984.678586994</v>
+        <v>1715767.04807596</v>
       </c>
       <c r="AE13" t="n">
-        <v>2053713.456013258</v>
+        <v>2347588.169477454</v>
       </c>
       <c r="AF13" t="n">
         <v>3.68217128772075e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1857709.926176291</v>
+        <v>2123537.649443215</v>
       </c>
     </row>
     <row r="14">
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1486.145229685823</v>
+        <v>1700.826113948304</v>
       </c>
       <c r="AB14" t="n">
-        <v>2033.409467356395</v>
+        <v>2327.145324256502</v>
       </c>
       <c r="AC14" t="n">
-        <v>1839.343721700012</v>
+        <v>2105.045840678437</v>
       </c>
       <c r="AD14" t="n">
-        <v>1486145.229685823</v>
+        <v>1700826.113948304</v>
       </c>
       <c r="AE14" t="n">
-        <v>2033409.467356395</v>
+        <v>2327145.324256502</v>
       </c>
       <c r="AF14" t="n">
         <v>3.698907311219514e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.3203125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1839343.721700012</v>
+        <v>2105045.840678437</v>
       </c>
     </row>
     <row r="15">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1466.290858235678</v>
+        <v>1680.971742498159</v>
       </c>
       <c r="AB15" t="n">
-        <v>2006.243840425257</v>
+        <v>2299.979697325364</v>
       </c>
       <c r="AC15" t="n">
-        <v>1814.770744075985</v>
+        <v>2080.47286305441</v>
       </c>
       <c r="AD15" t="n">
-        <v>1466290.858235678</v>
+        <v>1680971.742498159</v>
       </c>
       <c r="AE15" t="n">
-        <v>2006243.840425257</v>
+        <v>2299979.697325364</v>
       </c>
       <c r="AF15" t="n">
         <v>3.718104514644567e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.09895833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1814770.744075985</v>
+        <v>2080472.86305441</v>
       </c>
     </row>
     <row r="16">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1435.643760485593</v>
+        <v>1650.391964555778</v>
       </c>
       <c r="AB16" t="n">
-        <v>1964.311129229061</v>
+        <v>2258.13909606001</v>
       </c>
       <c r="AC16" t="n">
-        <v>1776.840031983424</v>
+        <v>2042.625470050168</v>
       </c>
       <c r="AD16" t="n">
-        <v>1435643.760485593</v>
+        <v>1650391.964555779</v>
       </c>
       <c r="AE16" t="n">
-        <v>1964311.129229061</v>
+        <v>2258139.09606001</v>
       </c>
       <c r="AF16" t="n">
         <v>3.741485723944312e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.82552083333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1776840.031983424</v>
+        <v>2042625.470050168</v>
       </c>
     </row>
     <row r="17">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1428.268135648879</v>
+        <v>1643.016339719064</v>
       </c>
       <c r="AB17" t="n">
-        <v>1954.219473937866</v>
+        <v>2248.047440768814</v>
       </c>
       <c r="AC17" t="n">
-        <v>1767.711510109493</v>
+        <v>2033.496948176237</v>
       </c>
       <c r="AD17" t="n">
-        <v>1428268.135648879</v>
+        <v>1643016.339719064</v>
       </c>
       <c r="AE17" t="n">
-        <v>1954219.473937866</v>
+        <v>2248047.440768814</v>
       </c>
       <c r="AF17" t="n">
         <v>3.735825010113847e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.890625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1767711.510109493</v>
+        <v>2033496.948176237</v>
       </c>
     </row>
     <row r="18">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1414.13414917714</v>
+        <v>1628.882353247325</v>
       </c>
       <c r="AB18" t="n">
-        <v>1934.880730099757</v>
+        <v>2228.708696930705</v>
       </c>
       <c r="AC18" t="n">
-        <v>1750.218428841196</v>
+        <v>2016.00386690794</v>
       </c>
       <c r="AD18" t="n">
-        <v>1414134.14917714</v>
+        <v>1628882.353247325</v>
       </c>
       <c r="AE18" t="n">
-        <v>1934880.730099757</v>
+        <v>2228708.696930705</v>
       </c>
       <c r="AF18" t="n">
         <v>3.749361499708436e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.734375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1750218.428841196</v>
+        <v>2016003.86690794</v>
       </c>
     </row>
     <row r="19">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1401.455219633939</v>
+        <v>1616.203423704125</v>
       </c>
       <c r="AB19" t="n">
-        <v>1917.532859343856</v>
+        <v>2211.360826174805</v>
       </c>
       <c r="AC19" t="n">
-        <v>1734.526214522349</v>
+        <v>2000.311652589093</v>
       </c>
       <c r="AD19" t="n">
-        <v>1401455.219633939</v>
+        <v>1616203.423704125</v>
       </c>
       <c r="AE19" t="n">
-        <v>1917532.859343856</v>
+        <v>2211360.826174804</v>
       </c>
       <c r="AF19" t="n">
         <v>3.757483393465189e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.64322916666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1734526.214522349</v>
+        <v>2000311.652589093</v>
       </c>
     </row>
     <row r="20">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1391.919036021153</v>
+        <v>1606.667240091339</v>
       </c>
       <c r="AB20" t="n">
-        <v>1904.485032218113</v>
+        <v>2198.312999049062</v>
       </c>
       <c r="AC20" t="n">
-        <v>1722.723653704747</v>
+        <v>1988.50909177149</v>
       </c>
       <c r="AD20" t="n">
-        <v>1391919.036021153</v>
+        <v>1606667.240091339</v>
       </c>
       <c r="AE20" t="n">
-        <v>1904485.032218114</v>
+        <v>2198312.999049061</v>
       </c>
       <c r="AF20" t="n">
         <v>3.761175163354623e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1722723.653704747</v>
+        <v>1988509.09177149</v>
       </c>
     </row>
     <row r="21">
@@ -21071,28 +21071,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1389.319265125467</v>
+        <v>1604.067469195652</v>
       </c>
       <c r="AB21" t="n">
-        <v>1900.927910984838</v>
+        <v>2194.755877815786</v>
       </c>
       <c r="AC21" t="n">
-        <v>1719.506019129524</v>
+        <v>1985.291457196268</v>
       </c>
       <c r="AD21" t="n">
-        <v>1389319.265125467</v>
+        <v>1604067.469195652</v>
       </c>
       <c r="AE21" t="n">
-        <v>1900927.910984838</v>
+        <v>2194755.877815786</v>
       </c>
       <c r="AF21" t="n">
         <v>3.765851405214571e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.54557291666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1719506.019129524</v>
+        <v>1985291.457196268</v>
       </c>
     </row>
     <row r="22">
@@ -21177,28 +21177,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1392.031656500127</v>
+        <v>1606.779860570313</v>
       </c>
       <c r="AB22" t="n">
-        <v>1904.63912452591</v>
+        <v>2198.467091356858</v>
       </c>
       <c r="AC22" t="n">
-        <v>1722.863039658957</v>
+        <v>1988.648477725701</v>
       </c>
       <c r="AD22" t="n">
-        <v>1392031.656500127</v>
+        <v>1606779.860570313</v>
       </c>
       <c r="AE22" t="n">
-        <v>1904639.12452591</v>
+        <v>2198467.091356859</v>
       </c>
       <c r="AF22" t="n">
         <v>3.7660975232072e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.54557291666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>1722863.039658957</v>
+        <v>1988648.477725701</v>
       </c>
     </row>
     <row r="23">
@@ -21283,28 +21283,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1396.254641379025</v>
+        <v>1611.002845449211</v>
       </c>
       <c r="AB23" t="n">
-        <v>1910.417198742162</v>
+        <v>2204.24516557311</v>
       </c>
       <c r="AC23" t="n">
-        <v>1728.089662581588</v>
+        <v>1993.875100648332</v>
       </c>
       <c r="AD23" t="n">
-        <v>1396254.641379025</v>
+        <v>1611002.845449211</v>
       </c>
       <c r="AE23" t="n">
-        <v>1910417.198742162</v>
+        <v>2204245.16557311</v>
       </c>
       <c r="AF23" t="n">
         <v>3.765851405214571e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>43</v>
+        <v>42.55208333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>1728089.662581588</v>
+        <v>1993875.100648332</v>
       </c>
     </row>
   </sheetData>
@@ -21580,28 +21580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2405.219518299677</v>
+        <v>2728.822415095122</v>
       </c>
       <c r="AB2" t="n">
-        <v>3290.92745573403</v>
+        <v>3733.695215481815</v>
       </c>
       <c r="AC2" t="n">
-        <v>2976.845958204342</v>
+        <v>3377.356584390237</v>
       </c>
       <c r="AD2" t="n">
-        <v>2405219.518299677</v>
+        <v>2728822.415095122</v>
       </c>
       <c r="AE2" t="n">
-        <v>3290927.455734029</v>
+        <v>3733695.215481815</v>
       </c>
       <c r="AF2" t="n">
         <v>3.044599389765862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.61197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2976845.958204343</v>
+        <v>3377356.584390237</v>
       </c>
     </row>
     <row r="3">
@@ -21686,28 +21686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1612.014906086692</v>
+        <v>1859.494032387269</v>
       </c>
       <c r="AB3" t="n">
-        <v>2205.629911586277</v>
+        <v>2544.241770199224</v>
       </c>
       <c r="AC3" t="n">
-        <v>1995.127688445505</v>
+        <v>2301.422906517161</v>
       </c>
       <c r="AD3" t="n">
-        <v>1612014.906086692</v>
+        <v>1859494.032387269</v>
       </c>
       <c r="AE3" t="n">
-        <v>2205629.911586277</v>
+        <v>2544241.770199224</v>
       </c>
       <c r="AF3" t="n">
         <v>3.933770913653947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1995127.688445505</v>
+        <v>2301422.906517161</v>
       </c>
     </row>
     <row r="4">
@@ -21792,28 +21792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1430.770982614381</v>
+        <v>1659.143305128841</v>
       </c>
       <c r="AB4" t="n">
-        <v>1957.643979573881</v>
+        <v>2270.113066313971</v>
       </c>
       <c r="AC4" t="n">
-        <v>1770.809185733931</v>
+        <v>2053.456661388665</v>
       </c>
       <c r="AD4" t="n">
-        <v>1430770.982614381</v>
+        <v>1659143.305128841</v>
       </c>
       <c r="AE4" t="n">
-        <v>1957643.979573881</v>
+        <v>2270113.066313971</v>
       </c>
       <c r="AF4" t="n">
         <v>4.248877592409318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.01171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1770809.185733931</v>
+        <v>2053456.661388665</v>
       </c>
     </row>
     <row r="5">
@@ -21898,28 +21898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1336.758297057429</v>
+        <v>1555.610877582683</v>
       </c>
       <c r="AB5" t="n">
-        <v>1829.011675647891</v>
+        <v>2128.455431416975</v>
       </c>
       <c r="AC5" t="n">
-        <v>1654.453368358065</v>
+        <v>1925.318632348498</v>
       </c>
       <c r="AD5" t="n">
-        <v>1336758.297057429</v>
+        <v>1555610.877582683</v>
       </c>
       <c r="AE5" t="n">
-        <v>1829011.675647891</v>
+        <v>2128455.431416974</v>
       </c>
       <c r="AF5" t="n">
         <v>4.411800325047196e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.27994791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1654453.368358065</v>
+        <v>1925318.632348498</v>
       </c>
     </row>
     <row r="6">
@@ -22004,28 +22004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1277.19099761534</v>
+        <v>1496.009412721814</v>
       </c>
       <c r="AB6" t="n">
-        <v>1747.509068627444</v>
+        <v>2046.906077763279</v>
       </c>
       <c r="AC6" t="n">
-        <v>1580.729255762022</v>
+        <v>1851.552234552275</v>
       </c>
       <c r="AD6" t="n">
-        <v>1277190.99761534</v>
+        <v>1496009.412721813</v>
       </c>
       <c r="AE6" t="n">
-        <v>1747509.068627444</v>
+        <v>2046906.077763279</v>
       </c>
       <c r="AF6" t="n">
         <v>4.513972208226883e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.25130208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1580729.255762022</v>
+        <v>1851552.234552275</v>
       </c>
     </row>
     <row r="7">
@@ -22110,28 +22110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1238.135939145801</v>
+        <v>1457.021674059979</v>
       </c>
       <c r="AB7" t="n">
-        <v>1694.072214641844</v>
+        <v>1993.561333708521</v>
       </c>
       <c r="AC7" t="n">
-        <v>1532.392340121712</v>
+        <v>1803.298638000283</v>
       </c>
       <c r="AD7" t="n">
-        <v>1238135.939145801</v>
+        <v>1457021.674059979</v>
       </c>
       <c r="AE7" t="n">
-        <v>1694072.214641844</v>
+        <v>1993561.333708521</v>
       </c>
       <c r="AF7" t="n">
         <v>4.559688756556532e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.80859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1532392.340121712</v>
+        <v>1803298.638000283</v>
       </c>
     </row>
     <row r="8">
@@ -22216,28 +22216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1199.327910776646</v>
+        <v>1408.660749312694</v>
       </c>
       <c r="AB8" t="n">
-        <v>1640.973358137787</v>
+        <v>1927.391782935862</v>
       </c>
       <c r="AC8" t="n">
-        <v>1484.361163957689</v>
+        <v>1743.44421628382</v>
       </c>
       <c r="AD8" t="n">
-        <v>1199327.910776646</v>
+        <v>1408660.749312694</v>
       </c>
       <c r="AE8" t="n">
-        <v>1640973.358137787</v>
+        <v>1927391.782935862</v>
       </c>
       <c r="AF8" t="n">
         <v>4.625041943094891e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.19010416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1484361.163957689</v>
+        <v>1743444.21628382</v>
       </c>
     </row>
     <row r="9">
@@ -22322,28 +22322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1164.029839553746</v>
+        <v>1373.429997897499</v>
       </c>
       <c r="AB9" t="n">
-        <v>1592.676979849618</v>
+        <v>1879.187514578535</v>
       </c>
       <c r="AC9" t="n">
-        <v>1440.67412422895</v>
+        <v>1699.840495643401</v>
       </c>
       <c r="AD9" t="n">
-        <v>1164029.839553746</v>
+        <v>1373429.997897499</v>
       </c>
       <c r="AE9" t="n">
-        <v>1592676.979849618</v>
+        <v>1879187.514578535</v>
       </c>
       <c r="AF9" t="n">
         <v>4.658178770072086e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.88411458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1440674.12422895</v>
+        <v>1699840.495643401</v>
       </c>
     </row>
     <row r="10">
@@ -22428,28 +22428,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1157.708427285542</v>
+        <v>1367.108585629295</v>
       </c>
       <c r="AB10" t="n">
-        <v>1584.027744703234</v>
+        <v>1870.538279432152</v>
       </c>
       <c r="AC10" t="n">
-        <v>1432.85035994566</v>
+        <v>1692.01673136011</v>
       </c>
       <c r="AD10" t="n">
-        <v>1157708.427285542</v>
+        <v>1367108.585629295</v>
       </c>
       <c r="AE10" t="n">
-        <v>1584027.744703234</v>
+        <v>1870538.279432151</v>
       </c>
       <c r="AF10" t="n">
         <v>4.666156154344374e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.80598958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1432850.35994566</v>
+        <v>1692016.73136011</v>
       </c>
     </row>
     <row r="11">
@@ -22534,28 +22534,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1162.494122287292</v>
+        <v>1371.894280631045</v>
       </c>
       <c r="AB11" t="n">
-        <v>1590.575743734591</v>
+        <v>1877.086278463508</v>
       </c>
       <c r="AC11" t="n">
-        <v>1438.773427139638</v>
+        <v>1697.939798554088</v>
       </c>
       <c r="AD11" t="n">
-        <v>1162494.122287292</v>
+        <v>1371894.280631045</v>
       </c>
       <c r="AE11" t="n">
-        <v>1590575.743734591</v>
+        <v>1877086.278463508</v>
       </c>
       <c r="AF11" t="n">
         <v>4.66492886445633e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.81901041666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1438773.427139638</v>
+        <v>1697939.798554088</v>
       </c>
     </row>
   </sheetData>
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1816.627673625396</v>
+        <v>2098.520024039535</v>
       </c>
       <c r="AB2" t="n">
-        <v>2485.590127010951</v>
+        <v>2871.287677060371</v>
       </c>
       <c r="AC2" t="n">
-        <v>2248.368893836679</v>
+        <v>2597.256011039294</v>
       </c>
       <c r="AD2" t="n">
-        <v>1816627.673625397</v>
+        <v>2098520.024039535</v>
       </c>
       <c r="AE2" t="n">
-        <v>2485590.127010951</v>
+        <v>2871287.677060371</v>
       </c>
       <c r="AF2" t="n">
         <v>3.886505079844784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2248368.893836679</v>
+        <v>2597256.011039294</v>
       </c>
     </row>
     <row r="3">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1335.927291179591</v>
+        <v>1561.48237221941</v>
       </c>
       <c r="AB3" t="n">
-        <v>1827.874656744442</v>
+        <v>2136.489069411007</v>
       </c>
       <c r="AC3" t="n">
-        <v>1653.424864942945</v>
+        <v>1932.585551207661</v>
       </c>
       <c r="AD3" t="n">
-        <v>1335927.291179591</v>
+        <v>1561482.37221941</v>
       </c>
       <c r="AE3" t="n">
-        <v>1827874.656744442</v>
+        <v>2136489.069411007</v>
       </c>
       <c r="AF3" t="n">
         <v>4.724162054414562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.07942708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1653424.864942945</v>
+        <v>1932585.551207661</v>
       </c>
     </row>
     <row r="4">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200.58343709391</v>
+        <v>1416.703419346302</v>
       </c>
       <c r="AB4" t="n">
-        <v>1642.69122463498</v>
+        <v>1938.396118893404</v>
       </c>
       <c r="AC4" t="n">
-        <v>1485.915079687431</v>
+        <v>1753.398313862257</v>
       </c>
       <c r="AD4" t="n">
-        <v>1200583.43709391</v>
+        <v>1416703.419346302</v>
       </c>
       <c r="AE4" t="n">
-        <v>1642691.22463498</v>
+        <v>1938396.118893404</v>
       </c>
       <c r="AF4" t="n">
         <v>5.015824374589628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.28645833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1485915.079687431</v>
+        <v>1753398.313862257</v>
       </c>
     </row>
     <row r="5">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1120.696294135885</v>
+        <v>1336.8494307772</v>
       </c>
       <c r="AB5" t="n">
-        <v>1533.3861112678</v>
+        <v>1829.136368823818</v>
       </c>
       <c r="AC5" t="n">
-        <v>1387.041892929324</v>
+        <v>1654.56616099229</v>
       </c>
       <c r="AD5" t="n">
-        <v>1120696.294135885</v>
+        <v>1336849.4307772</v>
       </c>
       <c r="AE5" t="n">
-        <v>1533386.1112678</v>
+        <v>1829136.368823818</v>
       </c>
       <c r="AF5" t="n">
         <v>5.168633102145463e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.9453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1387041.892929324</v>
+        <v>1654566.16099229</v>
       </c>
     </row>
     <row r="6">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1079.404896449914</v>
+        <v>1286.123945333659</v>
       </c>
       <c r="AB6" t="n">
-        <v>1476.889399305955</v>
+        <v>1759.731521789487</v>
       </c>
       <c r="AC6" t="n">
-        <v>1335.937147863484</v>
+        <v>1591.7852151486</v>
       </c>
       <c r="AD6" t="n">
-        <v>1079404.896449914</v>
+        <v>1286123.945333659</v>
       </c>
       <c r="AE6" t="n">
-        <v>1476889.399305955</v>
+        <v>1759731.521789487</v>
       </c>
       <c r="AF6" t="n">
         <v>5.248177371284119e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.27473958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1335937.147863484</v>
+        <v>1591785.2151486</v>
       </c>
     </row>
     <row r="7">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1073.60148623636</v>
+        <v>1280.320535120104</v>
       </c>
       <c r="AB7" t="n">
-        <v>1468.94891742338</v>
+        <v>1751.791039906913</v>
       </c>
       <c r="AC7" t="n">
-        <v>1328.754494427246</v>
+        <v>1584.602561712363</v>
       </c>
       <c r="AD7" t="n">
-        <v>1073601.486236359</v>
+        <v>1280320.535120104</v>
       </c>
       <c r="AE7" t="n">
-        <v>1468948.91742338</v>
+        <v>1751791.039906913</v>
       </c>
       <c r="AF7" t="n">
         <v>5.264923533208046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.13802083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1328754.494427246</v>
+        <v>1584602.561712363</v>
       </c>
     </row>
     <row r="8">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1077.858091472974</v>
+        <v>1284.577140356719</v>
       </c>
       <c r="AB8" t="n">
-        <v>1474.772992496286</v>
+        <v>1757.615114979818</v>
       </c>
       <c r="AC8" t="n">
-        <v>1334.022727949334</v>
+        <v>1589.870795234451</v>
       </c>
       <c r="AD8" t="n">
-        <v>1077858.091472974</v>
+        <v>1284577.140356719</v>
       </c>
       <c r="AE8" t="n">
-        <v>1474772.992496286</v>
+        <v>1757615.114979818</v>
       </c>
       <c r="AF8" t="n">
         <v>5.265272411581461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.13802083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1334022.727949334</v>
+        <v>1589870.795234451</v>
       </c>
     </row>
   </sheetData>
@@ -44057,28 +44057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1471.169445887793</v>
+        <v>1722.363246356701</v>
       </c>
       <c r="AB2" t="n">
-        <v>2012.918939278979</v>
+        <v>2356.613378968894</v>
       </c>
       <c r="AC2" t="n">
-        <v>1820.808780863667</v>
+        <v>2131.701505607753</v>
       </c>
       <c r="AD2" t="n">
-        <v>1471169.445887793</v>
+        <v>1722363.246356701</v>
       </c>
       <c r="AE2" t="n">
-        <v>2012918.939278979</v>
+        <v>2356613.378968894</v>
       </c>
       <c r="AF2" t="n">
         <v>4.718119770380039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1820808.780863667</v>
+        <v>2131701.505607753</v>
       </c>
     </row>
     <row r="3">
@@ -44163,28 +44163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1137.189371688465</v>
+        <v>1360.396939066854</v>
       </c>
       <c r="AB3" t="n">
-        <v>1555.952667598469</v>
+        <v>1861.355108508471</v>
       </c>
       <c r="AC3" t="n">
-        <v>1407.454728796155</v>
+        <v>1683.709989380725</v>
       </c>
       <c r="AD3" t="n">
-        <v>1137189.371688465</v>
+        <v>1360396.939066854</v>
       </c>
       <c r="AE3" t="n">
-        <v>1555952.667598469</v>
+        <v>1861355.108508471</v>
       </c>
       <c r="AF3" t="n">
         <v>5.515051809323155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>1407454.728796154</v>
+        <v>1683709.989380725</v>
       </c>
     </row>
     <row r="4">
@@ -44269,28 +44269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1031.622712689831</v>
+        <v>1236.286676070477</v>
       </c>
       <c r="AB4" t="n">
-        <v>1411.511707484237</v>
+        <v>1691.541971318457</v>
       </c>
       <c r="AC4" t="n">
-        <v>1276.799011191064</v>
+        <v>1530.10357966989</v>
       </c>
       <c r="AD4" t="n">
-        <v>1031622.712689831</v>
+        <v>1236286.676070477</v>
       </c>
       <c r="AE4" t="n">
-        <v>1411511.707484237</v>
+        <v>1691541.971318457</v>
       </c>
       <c r="AF4" t="n">
         <v>5.790490955526208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.04947916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1276799.011191064</v>
+        <v>1530103.57966989</v>
       </c>
     </row>
     <row r="5">
@@ -44375,28 +44375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1001.962224065373</v>
+        <v>1215.931143833814</v>
       </c>
       <c r="AB5" t="n">
-        <v>1370.928918419846</v>
+        <v>1663.69063408955</v>
       </c>
       <c r="AC5" t="n">
-        <v>1240.089386556676</v>
+        <v>1504.910334976513</v>
       </c>
       <c r="AD5" t="n">
-        <v>1001962.224065372</v>
+        <v>1215931.143833814</v>
       </c>
       <c r="AE5" t="n">
-        <v>1370928.918419846</v>
+        <v>1663690.63408955</v>
       </c>
       <c r="AF5" t="n">
         <v>5.843384674925088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.65234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1240089.386556676</v>
+        <v>1504910.334976513</v>
       </c>
     </row>
     <row r="6">
@@ -44481,28 +44481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1006.520199499497</v>
+        <v>1220.489119267938</v>
       </c>
       <c r="AB6" t="n">
-        <v>1377.165341492499</v>
+        <v>1669.927057162203</v>
       </c>
       <c r="AC6" t="n">
-        <v>1245.73061416415</v>
+        <v>1510.551562583988</v>
       </c>
       <c r="AD6" t="n">
-        <v>1006520.199499497</v>
+        <v>1220489.119267938</v>
       </c>
       <c r="AE6" t="n">
-        <v>1377165.341492499</v>
+        <v>1669927.057162204</v>
       </c>
       <c r="AF6" t="n">
         <v>5.844560090911729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.64583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1245730.61416415</v>
+        <v>1510551.562583988</v>
       </c>
     </row>
   </sheetData>
@@ -44778,28 +44778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>939.1026188033699</v>
+        <v>1157.826304429419</v>
       </c>
       <c r="AB2" t="n">
-        <v>1284.92163333031</v>
+        <v>1584.189029411859</v>
       </c>
       <c r="AC2" t="n">
-        <v>1162.290516044103</v>
+        <v>1432.996251868058</v>
       </c>
       <c r="AD2" t="n">
-        <v>939102.6188033698</v>
+        <v>1157826.304429419</v>
       </c>
       <c r="AE2" t="n">
-        <v>1284921.63333031</v>
+        <v>1584189.029411859</v>
       </c>
       <c r="AF2" t="n">
         <v>7.144921862258393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.22005208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1162290.516044103</v>
+        <v>1432996.251868058</v>
       </c>
     </row>
     <row r="3">
@@ -44884,28 +44884,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>886.8302725874501</v>
+        <v>1105.587112602423</v>
       </c>
       <c r="AB3" t="n">
-        <v>1213.40030314453</v>
+        <v>1512.713062523673</v>
       </c>
       <c r="AC3" t="n">
-        <v>1097.595081230437</v>
+        <v>1368.341850942531</v>
       </c>
       <c r="AD3" t="n">
-        <v>886830.2725874501</v>
+        <v>1105587.112602423</v>
       </c>
       <c r="AE3" t="n">
-        <v>1213400.303144529</v>
+        <v>1512713.062523673</v>
       </c>
       <c r="AF3" t="n">
         <v>7.366192651001093e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.80078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1097595.081230436</v>
+        <v>1368341.850942531</v>
       </c>
     </row>
   </sheetData>
@@ -45181,28 +45181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3117.842973842118</v>
+        <v>3483.351180308811</v>
       </c>
       <c r="AB2" t="n">
-        <v>4265.970306335278</v>
+        <v>4766.074759507052</v>
       </c>
       <c r="AC2" t="n">
-        <v>3858.832087625407</v>
+        <v>4311.207273687458</v>
       </c>
       <c r="AD2" t="n">
-        <v>3117842.973842118</v>
+        <v>3483351.180308811</v>
       </c>
       <c r="AE2" t="n">
-        <v>4265970.306335278</v>
+        <v>4766074.759507053</v>
       </c>
       <c r="AF2" t="n">
         <v>2.455881050476709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.79557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3858832.087625407</v>
+        <v>4311207.273687458</v>
       </c>
     </row>
     <row r="3">
@@ -45287,28 +45287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1903.616026873212</v>
+        <v>2172.919881417732</v>
       </c>
       <c r="AB3" t="n">
-        <v>2604.61142957991</v>
+        <v>2973.084844215276</v>
       </c>
       <c r="AC3" t="n">
-        <v>2356.030970335903</v>
+        <v>2689.337799434156</v>
       </c>
       <c r="AD3" t="n">
-        <v>1903616.026873212</v>
+        <v>2172919.881417732</v>
       </c>
       <c r="AE3" t="n">
-        <v>2604611.42957991</v>
+        <v>2973084.844215276</v>
       </c>
       <c r="AF3" t="n">
         <v>3.378715519115373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.63932291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2356030.970335904</v>
+        <v>2689337.799434156</v>
       </c>
     </row>
     <row r="4">
@@ -45393,28 +45393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1642.27278594481</v>
+        <v>1882.74950033146</v>
       </c>
       <c r="AB4" t="n">
-        <v>2247.030077691602</v>
+        <v>2576.060927399303</v>
       </c>
       <c r="AC4" t="n">
-        <v>2032.576680803237</v>
+        <v>2330.205288012532</v>
       </c>
       <c r="AD4" t="n">
-        <v>1642272.78594481</v>
+        <v>1882749.50033146</v>
       </c>
       <c r="AE4" t="n">
-        <v>2247030.077691603</v>
+        <v>2576060.927399303</v>
       </c>
       <c r="AF4" t="n">
         <v>3.716113822581454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.76953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2032576.680803237</v>
+        <v>2330205.288012533</v>
       </c>
     </row>
     <row r="5">
@@ -45499,28 +45499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1527.50354878851</v>
+        <v>1758.359827982942</v>
       </c>
       <c r="AB5" t="n">
-        <v>2089.997744152956</v>
+        <v>2405.865490007018</v>
       </c>
       <c r="AC5" t="n">
-        <v>1890.531292781254</v>
+        <v>2176.253064294171</v>
       </c>
       <c r="AD5" t="n">
-        <v>1527503.54878851</v>
+        <v>1758359.827982942</v>
       </c>
       <c r="AE5" t="n">
-        <v>2089997.744152956</v>
+        <v>2405865.490007018</v>
       </c>
       <c r="AF5" t="n">
         <v>3.888988695892046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.6015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1890531.292781254</v>
+        <v>2176253.064294171</v>
       </c>
     </row>
     <row r="6">
@@ -45605,28 +45605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1457.699444557328</v>
+        <v>1678.867968751838</v>
       </c>
       <c r="AB6" t="n">
-        <v>1994.488689204117</v>
+        <v>2297.1012212737</v>
       </c>
       <c r="AC6" t="n">
-        <v>1804.137487988932</v>
+        <v>2077.86910471715</v>
       </c>
       <c r="AD6" t="n">
-        <v>1457699.444557328</v>
+        <v>1678867.968751838</v>
       </c>
       <c r="AE6" t="n">
-        <v>1994488.689204117</v>
+        <v>2297101.2212737</v>
       </c>
       <c r="AF6" t="n">
         <v>3.998949364100876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.32552083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1804137.487988932</v>
+        <v>2077869.10471715</v>
       </c>
     </row>
     <row r="7">
@@ -45711,28 +45711,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1405.917910581059</v>
+        <v>1627.153754583274</v>
       </c>
       <c r="AB7" t="n">
-        <v>1923.638909977735</v>
+        <v>2226.343551978159</v>
       </c>
       <c r="AC7" t="n">
-        <v>1740.049512253627</v>
+        <v>2013.864448070163</v>
       </c>
       <c r="AD7" t="n">
-        <v>1405917.910581059</v>
+        <v>1627153.754583274</v>
       </c>
       <c r="AE7" t="n">
-        <v>1923638.909977735</v>
+        <v>2226343.551978159</v>
       </c>
       <c r="AF7" t="n">
         <v>4.070493393796241e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.52473958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1740049.512253626</v>
+        <v>2013864.448070163</v>
       </c>
     </row>
     <row r="8">
@@ -45817,28 +45817,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1387.753151110726</v>
+        <v>1608.887509886456</v>
       </c>
       <c r="AB8" t="n">
-        <v>1898.785084697796</v>
+        <v>2201.350870134131</v>
       </c>
       <c r="AC8" t="n">
-        <v>1717.567701175842</v>
+        <v>1991.25703270388</v>
       </c>
       <c r="AD8" t="n">
-        <v>1387753.151110726</v>
+        <v>1608887.509886456</v>
       </c>
       <c r="AE8" t="n">
-        <v>1898785.084697796</v>
+        <v>2201350.870134131</v>
       </c>
       <c r="AF8" t="n">
         <v>4.093599053192021e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.27083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1717567.701175842</v>
+        <v>1991257.03270388</v>
       </c>
     </row>
     <row r="9">
@@ -45923,28 +45923,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1338.639666254383</v>
+        <v>1559.841344837817</v>
       </c>
       <c r="AB9" t="n">
-        <v>1831.585847983315</v>
+        <v>2134.243743350492</v>
       </c>
       <c r="AC9" t="n">
-        <v>1656.78186529867</v>
+        <v>1930.554515915028</v>
       </c>
       <c r="AD9" t="n">
-        <v>1338639.666254383</v>
+        <v>1559841.344837817</v>
       </c>
       <c r="AE9" t="n">
-        <v>1831585.847983316</v>
+        <v>2134243.743350492</v>
       </c>
       <c r="AF9" t="n">
         <v>4.156791639732285e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.60026041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1656781.86529867</v>
+        <v>1930554.515915028</v>
       </c>
     </row>
     <row r="10">
@@ -46029,28 +46029,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1312.805259403106</v>
+        <v>1524.353348405399</v>
       </c>
       <c r="AB10" t="n">
-        <v>1796.238072795807</v>
+        <v>2085.687501011752</v>
       </c>
       <c r="AC10" t="n">
-        <v>1624.807632164143</v>
+        <v>1886.632413195983</v>
       </c>
       <c r="AD10" t="n">
-        <v>1312805.259403107</v>
+        <v>1524353.348405399</v>
       </c>
       <c r="AE10" t="n">
-        <v>1796238.072795807</v>
+        <v>2085687.501011752</v>
       </c>
       <c r="AF10" t="n">
         <v>4.192424463860716e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.22916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1624807.632164143</v>
+        <v>1886632.413195983</v>
       </c>
     </row>
     <row r="11">
@@ -46135,28 +46135,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1279.221462246004</v>
+        <v>1500.388975410657</v>
       </c>
       <c r="AB11" t="n">
-        <v>1750.287239912896</v>
+        <v>2052.898388646825</v>
       </c>
       <c r="AC11" t="n">
-        <v>1583.242282279179</v>
+        <v>1856.972647695356</v>
       </c>
       <c r="AD11" t="n">
-        <v>1279221.462246004</v>
+        <v>1500388.975410657</v>
       </c>
       <c r="AE11" t="n">
-        <v>1750287.239912896</v>
+        <v>2052898.388646825</v>
       </c>
       <c r="AF11" t="n">
         <v>4.217757174764522e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.96875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1583242.282279179</v>
+        <v>1856972.647695356</v>
       </c>
     </row>
     <row r="12">
@@ -46241,28 +46241,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1257.962808011685</v>
+        <v>1469.578216821682</v>
       </c>
       <c r="AB12" t="n">
-        <v>1721.200211323867</v>
+        <v>2010.741749470653</v>
       </c>
       <c r="AC12" t="n">
-        <v>1556.931278874785</v>
+        <v>1818.839378994943</v>
       </c>
       <c r="AD12" t="n">
-        <v>1257962.808011685</v>
+        <v>1469578.216821682</v>
       </c>
       <c r="AE12" t="n">
-        <v>1721200.211323867</v>
+        <v>2010741.749470653</v>
       </c>
       <c r="AF12" t="n">
         <v>4.241697978475813e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.72786458333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1556931.278874785</v>
+        <v>1818839.378994943</v>
       </c>
     </row>
     <row r="13">
@@ -46347,28 +46347,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1239.979046036708</v>
+        <v>1451.49296962022</v>
       </c>
       <c r="AB13" t="n">
-        <v>1696.594034802119</v>
+        <v>1985.996716384816</v>
       </c>
       <c r="AC13" t="n">
-        <v>1534.673481305288</v>
+        <v>1796.455977136947</v>
       </c>
       <c r="AD13" t="n">
-        <v>1239979.046036708</v>
+        <v>1451492.96962022</v>
       </c>
       <c r="AE13" t="n">
-        <v>1696594.034802119</v>
+        <v>1985996.716384816</v>
       </c>
       <c r="AF13" t="n">
         <v>4.264803637871592e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.49348958333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1534673.481305288</v>
+        <v>1796455.977136947</v>
       </c>
     </row>
     <row r="14">
@@ -46453,28 +46453,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1246.384419239081</v>
+        <v>1457.999828049079</v>
       </c>
       <c r="AB14" t="n">
-        <v>1705.358149002729</v>
+        <v>1994.899687149514</v>
       </c>
       <c r="AC14" t="n">
-        <v>1542.601160747102</v>
+        <v>1804.50926086726</v>
       </c>
       <c r="AD14" t="n">
-        <v>1246384.419239081</v>
+        <v>1457999.828049079</v>
       </c>
       <c r="AE14" t="n">
-        <v>1705358.149002729</v>
+        <v>1994899.687149514</v>
       </c>
       <c r="AF14" t="n">
         <v>4.250327803069417e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.64322916666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1542601.160747102</v>
+        <v>1804509.26086726</v>
       </c>
     </row>
     <row r="15">
@@ -46559,28 +46559,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1250.205731328565</v>
+        <v>1461.821140138562</v>
       </c>
       <c r="AB15" t="n">
-        <v>1710.586636787951</v>
+        <v>2000.128174934738</v>
       </c>
       <c r="AC15" t="n">
-        <v>1547.330648996332</v>
+        <v>1809.23874911649</v>
       </c>
       <c r="AD15" t="n">
-        <v>1250205.731328565</v>
+        <v>1461821.140138562</v>
       </c>
       <c r="AE15" t="n">
-        <v>1710586.636787951</v>
+        <v>2000128.174934738</v>
       </c>
       <c r="AF15" t="n">
         <v>4.25060618450792e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.63671874999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>1547330.648996332</v>
+        <v>1809238.74911649</v>
       </c>
     </row>
   </sheetData>
@@ -46856,28 +46856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4371.30325296283</v>
+        <v>4809.335552389685</v>
       </c>
       <c r="AB2" t="n">
-        <v>5981.009958993058</v>
+        <v>6580.345075690101</v>
       </c>
       <c r="AC2" t="n">
-        <v>5410.190762906733</v>
+        <v>5952.326177238308</v>
       </c>
       <c r="AD2" t="n">
-        <v>4371303.25296283</v>
+        <v>4809335.552389685</v>
       </c>
       <c r="AE2" t="n">
-        <v>5981009.958993058</v>
+        <v>6580345.075690101</v>
       </c>
       <c r="AF2" t="n">
         <v>1.882559303425108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.98567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5410190.762906733</v>
+        <v>5952326.177238308</v>
       </c>
     </row>
     <row r="3">
@@ -46962,28 +46962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2320.516825683411</v>
+        <v>2612.538358634647</v>
       </c>
       <c r="AB3" t="n">
-        <v>3175.03349487738</v>
+        <v>3574.590239342077</v>
       </c>
       <c r="AC3" t="n">
-        <v>2872.012754313661</v>
+        <v>3233.436363868044</v>
       </c>
       <c r="AD3" t="n">
-        <v>2320516.825683411</v>
+        <v>2612538.358634647</v>
       </c>
       <c r="AE3" t="n">
-        <v>3175033.49487738</v>
+        <v>3574590.239342077</v>
       </c>
       <c r="AF3" t="n">
         <v>2.834655370162686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.7734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2872012.754313661</v>
+        <v>3233436.363868044</v>
       </c>
     </row>
     <row r="4">
@@ -47068,28 +47068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1942.656031089736</v>
+        <v>2195.699094480211</v>
       </c>
       <c r="AB4" t="n">
-        <v>2658.027685672388</v>
+        <v>3004.252368475486</v>
       </c>
       <c r="AC4" t="n">
-        <v>2404.349253917102</v>
+        <v>2717.530738922753</v>
       </c>
       <c r="AD4" t="n">
-        <v>1942656.031089736</v>
+        <v>2195699.094480211</v>
       </c>
       <c r="AE4" t="n">
-        <v>2658027.685672387</v>
+        <v>3004252.368475487</v>
       </c>
       <c r="AF4" t="n">
         <v>3.195873323091395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.24348958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2404349.253917102</v>
+        <v>2717530.738922753</v>
       </c>
     </row>
     <row r="5">
@@ -47174,28 +47174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1783.191590922175</v>
+        <v>2026.464160100907</v>
       </c>
       <c r="AB5" t="n">
-        <v>2439.841403560541</v>
+        <v>2772.697665139178</v>
       </c>
       <c r="AC5" t="n">
-        <v>2206.986364343639</v>
+        <v>2508.075291483908</v>
       </c>
       <c r="AD5" t="n">
-        <v>1783191.590922175</v>
+        <v>2026464.160100907</v>
       </c>
       <c r="AE5" t="n">
-        <v>2439841.403560542</v>
+        <v>2772697.665139178</v>
       </c>
       <c r="AF5" t="n">
         <v>3.378997744910406e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.46354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2206986.364343639</v>
+        <v>2508075.291483908</v>
       </c>
     </row>
     <row r="6">
@@ -47280,28 +47280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1686.004255344056</v>
+        <v>1919.641980956314</v>
       </c>
       <c r="AB6" t="n">
-        <v>2306.865403419918</v>
+        <v>2626.538846971604</v>
       </c>
       <c r="AC6" t="n">
-        <v>2086.701407023449</v>
+        <v>2375.865665787058</v>
       </c>
       <c r="AD6" t="n">
-        <v>1686004.255344056</v>
+        <v>1919641.980956314</v>
       </c>
       <c r="AE6" t="n">
-        <v>2306865.403419918</v>
+        <v>2626538.846971605</v>
       </c>
       <c r="AF6" t="n">
         <v>3.496469042972876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.8359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2086701.407023448</v>
+        <v>2375865.665787058</v>
       </c>
     </row>
     <row r="7">
@@ -47386,28 +47386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1624.328832316377</v>
+        <v>1857.932392509853</v>
       </c>
       <c r="AB7" t="n">
-        <v>2222.478368705816</v>
+        <v>2542.105065624255</v>
       </c>
       <c r="AC7" t="n">
-        <v>2010.368152464514</v>
+        <v>2299.490126027943</v>
       </c>
       <c r="AD7" t="n">
-        <v>1624328.832316377</v>
+        <v>1857932.392509853</v>
       </c>
       <c r="AE7" t="n">
-        <v>2222478.368705816</v>
+        <v>2542105.065624255</v>
       </c>
       <c r="AF7" t="n">
         <v>3.576460205250961e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.78776041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2010368.152464514</v>
+        <v>2299490.126027943</v>
       </c>
     </row>
     <row r="8">
@@ -47492,28 +47492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1584.692284032184</v>
+        <v>1808.526361043777</v>
       </c>
       <c r="AB8" t="n">
-        <v>2168.245894702286</v>
+        <v>2474.505553732091</v>
       </c>
       <c r="AC8" t="n">
-        <v>1961.311549664125</v>
+        <v>2238.342216674257</v>
       </c>
       <c r="AD8" t="n">
-        <v>1584692.284032183</v>
+        <v>1808526.361043777</v>
       </c>
       <c r="AE8" t="n">
-        <v>2168245.894702286</v>
+        <v>2474505.553732092</v>
       </c>
       <c r="AF8" t="n">
         <v>3.635573171085394e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.04557291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1961311.549664125</v>
+        <v>2238342.216674257</v>
       </c>
     </row>
     <row r="9">
@@ -47598,28 +47598,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1532.626195785853</v>
+        <v>1756.426107378666</v>
       </c>
       <c r="AB9" t="n">
-        <v>2097.006775769957</v>
+        <v>2403.219688166516</v>
       </c>
       <c r="AC9" t="n">
-        <v>1896.871392257967</v>
+        <v>2173.85977406792</v>
       </c>
       <c r="AD9" t="n">
-        <v>1532626.195785854</v>
+        <v>1756426.107378666</v>
       </c>
       <c r="AE9" t="n">
-        <v>2097006.775769957</v>
+        <v>2403219.688166516</v>
       </c>
       <c r="AF9" t="n">
         <v>3.699968572164607e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.2578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1896871.392257967</v>
+        <v>2173859.77406792</v>
       </c>
     </row>
     <row r="10">
@@ -47704,28 +47704,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1524.471592734131</v>
+        <v>1738.603506371544</v>
       </c>
       <c r="AB10" t="n">
-        <v>2085.849288118893</v>
+        <v>2378.834019190908</v>
       </c>
       <c r="AC10" t="n">
-        <v>1886.778759568688</v>
+        <v>2151.801439113843</v>
       </c>
       <c r="AD10" t="n">
-        <v>1524471.592734131</v>
+        <v>1738603.506371544</v>
       </c>
       <c r="AE10" t="n">
-        <v>2085849.288118893</v>
+        <v>2378834.019190908</v>
       </c>
       <c r="AF10" t="n">
         <v>3.707766452764043e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1886778.759568688</v>
+        <v>2151801.439113843</v>
       </c>
     </row>
     <row r="11">
@@ -47810,28 +47810,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1491.16541439209</v>
+        <v>1715.032645792607</v>
       </c>
       <c r="AB11" t="n">
-        <v>2040.278305546428</v>
+        <v>2346.583327873828</v>
       </c>
       <c r="AC11" t="n">
-        <v>1845.557007613663</v>
+        <v>2122.628708511935</v>
       </c>
       <c r="AD11" t="n">
-        <v>1491165.41439209</v>
+        <v>1715032.645792607</v>
       </c>
       <c r="AE11" t="n">
-        <v>2040278.305546428</v>
+        <v>2346583.327873828</v>
       </c>
       <c r="AF11" t="n">
         <v>3.737951797019923e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.81510416666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1845557.007613663</v>
+        <v>2122628.708511935</v>
       </c>
     </row>
     <row r="12">
@@ -47916,28 +47916,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1469.577246370595</v>
+        <v>1683.776479815713</v>
       </c>
       <c r="AB12" t="n">
-        <v>2010.740421656662</v>
+        <v>2303.817262659519</v>
       </c>
       <c r="AC12" t="n">
-        <v>1818.838177905656</v>
+        <v>2083.94417653913</v>
       </c>
       <c r="AD12" t="n">
-        <v>1469577.246370594</v>
+        <v>1683776.479815713</v>
       </c>
       <c r="AE12" t="n">
-        <v>2010740.421656662</v>
+        <v>2303817.262659519</v>
       </c>
       <c r="AF12" t="n">
         <v>3.763106250566491e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.52213541666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1818838.177905656</v>
+        <v>2083944.17653913</v>
       </c>
     </row>
     <row r="13">
@@ -48022,28 +48022,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1452.047702488049</v>
+        <v>1666.145450706682</v>
       </c>
       <c r="AB13" t="n">
-        <v>1986.755726367667</v>
+        <v>2279.693710806434</v>
       </c>
       <c r="AC13" t="n">
-        <v>1797.142548272311</v>
+        <v>2062.122942617285</v>
       </c>
       <c r="AD13" t="n">
-        <v>1452047.702488048</v>
+        <v>1666145.450706682</v>
       </c>
       <c r="AE13" t="n">
-        <v>1986755.726367667</v>
+        <v>2279693.710806434</v>
       </c>
       <c r="AF13" t="n">
         <v>3.779959734442691e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.32682291666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1797142.548272311</v>
+        <v>2062122.942617286</v>
       </c>
     </row>
     <row r="14">
@@ -48128,28 +48128,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1436.847171846404</v>
+        <v>1650.944920065037</v>
       </c>
       <c r="AB14" t="n">
-        <v>1965.957689743685</v>
+        <v>2258.895674182453</v>
       </c>
       <c r="AC14" t="n">
-        <v>1778.329447073494</v>
+        <v>2043.309841418469</v>
       </c>
       <c r="AD14" t="n">
-        <v>1436847.171846404</v>
+        <v>1650944.920065037</v>
       </c>
       <c r="AE14" t="n">
-        <v>1965957.689743685</v>
+        <v>2258895.674182453</v>
       </c>
       <c r="AF14" t="n">
         <v>3.79631012924796e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.13802083333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1778329.447073494</v>
+        <v>2043309.841418469</v>
       </c>
     </row>
     <row r="15">
@@ -48234,28 +48234,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1408.950312297349</v>
+        <v>1632.783378279085</v>
       </c>
       <c r="AB15" t="n">
-        <v>1927.787975786085</v>
+        <v>2234.046251480237</v>
       </c>
       <c r="AC15" t="n">
-        <v>1743.802597044478</v>
+        <v>2020.832012742569</v>
       </c>
       <c r="AD15" t="n">
-        <v>1408950.312297349</v>
+        <v>1632783.378279085</v>
       </c>
       <c r="AE15" t="n">
-        <v>1927787.975786085</v>
+        <v>2234046.251480237</v>
       </c>
       <c r="AF15" t="n">
         <v>3.815427513943351e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.92317708333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1743802.597044477</v>
+        <v>2020832.012742569</v>
       </c>
     </row>
     <row r="16">
@@ -48340,28 +48340,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1394.265188104581</v>
+        <v>1608.430256130918</v>
       </c>
       <c r="AB16" t="n">
-        <v>1907.695141003584</v>
+        <v>2200.725235373193</v>
       </c>
       <c r="AC16" t="n">
-        <v>1725.627394213148</v>
+        <v>1990.691107646442</v>
       </c>
       <c r="AD16" t="n">
-        <v>1394265.188104581</v>
+        <v>1608430.256130918</v>
       </c>
       <c r="AE16" t="n">
-        <v>1907695.141003584</v>
+        <v>2200725.235373193</v>
       </c>
       <c r="AF16" t="n">
         <v>3.826243928968375e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.79947916666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1725627.394213148</v>
+        <v>1990691.107646442</v>
       </c>
     </row>
     <row r="17">
@@ -48446,28 +48446,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1376.024408699408</v>
+        <v>1590.189476725746</v>
       </c>
       <c r="AB17" t="n">
-        <v>1882.737301895034</v>
+        <v>2175.767396264643</v>
       </c>
       <c r="AC17" t="n">
-        <v>1703.051496240571</v>
+        <v>1968.115209673865</v>
       </c>
       <c r="AD17" t="n">
-        <v>1376024.408699408</v>
+        <v>1590189.476725746</v>
       </c>
       <c r="AE17" t="n">
-        <v>1882737.301895034</v>
+        <v>2175767.396264643</v>
       </c>
       <c r="AF17" t="n">
         <v>3.833287175961415e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.72135416666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1703051.496240571</v>
+        <v>1968115.209673865</v>
       </c>
     </row>
     <row r="18">
@@ -48552,28 +48552,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1363.437878860763</v>
+        <v>1577.6029468871</v>
       </c>
       <c r="AB18" t="n">
-        <v>1865.515856491292</v>
+        <v>2158.545950860901</v>
       </c>
       <c r="AC18" t="n">
-        <v>1687.473641415712</v>
+        <v>1952.537354849006</v>
       </c>
       <c r="AD18" t="n">
-        <v>1363437.878860763</v>
+        <v>1577602.9468871</v>
       </c>
       <c r="AE18" t="n">
-        <v>1865515.856491292</v>
+        <v>2158545.950860901</v>
       </c>
       <c r="AF18" t="n">
         <v>3.841336601096316e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.63020833333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1687473.641415712</v>
+        <v>1952537.354849006</v>
       </c>
     </row>
     <row r="19">
@@ -48658,28 +48658,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1361.053421472213</v>
+        <v>1575.218489498551</v>
       </c>
       <c r="AB19" t="n">
-        <v>1862.253336697443</v>
+        <v>2155.283431067052</v>
       </c>
       <c r="AC19" t="n">
-        <v>1684.522491932012</v>
+        <v>1949.586205365306</v>
       </c>
       <c r="AD19" t="n">
-        <v>1361053.421472213</v>
+        <v>1575218.489498551</v>
       </c>
       <c r="AE19" t="n">
-        <v>1862253.336697443</v>
+        <v>2155283.431067052</v>
       </c>
       <c r="AF19" t="n">
         <v>3.846115947270164e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.57812500000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>1684522.491932012</v>
+        <v>1949586.205365306</v>
       </c>
     </row>
     <row r="20">
@@ -48764,28 +48764,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1361.160694291325</v>
+        <v>1575.325762317663</v>
       </c>
       <c r="AB20" t="n">
-        <v>1862.400112101095</v>
+        <v>2155.430206470704</v>
       </c>
       <c r="AC20" t="n">
-        <v>1684.65525929714</v>
+        <v>1949.718972730434</v>
       </c>
       <c r="AD20" t="n">
-        <v>1361160.694291325</v>
+        <v>1575325.762317663</v>
       </c>
       <c r="AE20" t="n">
-        <v>1862400.112101095</v>
+        <v>2155430.206470704</v>
       </c>
       <c r="AF20" t="n">
         <v>3.849386026231218e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.54557291666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1684655.25929714</v>
+        <v>1949718.972730434</v>
       </c>
     </row>
     <row r="21">
@@ -48870,28 +48870,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1364.613658514279</v>
+        <v>1578.778726540616</v>
       </c>
       <c r="AB21" t="n">
-        <v>1867.12461008497</v>
+        <v>2160.154704454579</v>
       </c>
       <c r="AC21" t="n">
-        <v>1688.928857824309</v>
+        <v>1953.992571257602</v>
       </c>
       <c r="AD21" t="n">
-        <v>1364613.658514279</v>
+        <v>1578778.726540616</v>
       </c>
       <c r="AE21" t="n">
-        <v>1867124.61008497</v>
+        <v>2160154.704454579</v>
       </c>
       <c r="AF21" t="n">
         <v>3.849637570766683e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.5390625</v>
       </c>
       <c r="AH21" t="n">
-        <v>1688928.857824309</v>
+        <v>1953992.571257602</v>
       </c>
     </row>
     <row r="22">
@@ -48976,28 +48976,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1368.889158107499</v>
+        <v>1583.054226133836</v>
       </c>
       <c r="AB22" t="n">
-        <v>1872.974537250144</v>
+        <v>2166.004631619753</v>
       </c>
       <c r="AC22" t="n">
-        <v>1694.220476151262</v>
+        <v>1959.284189584557</v>
       </c>
       <c r="AD22" t="n">
-        <v>1368889.158107499</v>
+        <v>1583054.226133836</v>
       </c>
       <c r="AE22" t="n">
-        <v>1872974.537250144</v>
+        <v>2166004.631619753</v>
       </c>
       <c r="AF22" t="n">
         <v>3.849386026231218e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.54557291666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>1694220.476151262</v>
+        <v>1959284.189584557</v>
       </c>
     </row>
   </sheetData>
@@ -49273,28 +49273,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>846.3413097255302</v>
+        <v>1071.947393023693</v>
       </c>
       <c r="AB2" t="n">
-        <v>1158.001517909876</v>
+        <v>1466.685714116368</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047.483478305895</v>
+        <v>1326.707288067429</v>
       </c>
       <c r="AD2" t="n">
-        <v>846341.3097255302</v>
+        <v>1071947.393023693</v>
       </c>
       <c r="AE2" t="n">
-        <v>1158001.517909876</v>
+        <v>1466685.714116368</v>
       </c>
       <c r="AF2" t="n">
         <v>8.23627538948984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1047483.478305895</v>
+        <v>1326707.288067429</v>
       </c>
     </row>
   </sheetData>
@@ -49570,28 +49570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000.241773346484</v>
+        <v>2302.31872862661</v>
       </c>
       <c r="AB2" t="n">
-        <v>2736.81903873172</v>
+        <v>3150.134055640884</v>
       </c>
       <c r="AC2" t="n">
-        <v>2475.620870824809</v>
+        <v>2849.489682611314</v>
       </c>
       <c r="AD2" t="n">
-        <v>2000241.773346484</v>
+        <v>2302318.72862661</v>
       </c>
       <c r="AE2" t="n">
-        <v>2736819.038731719</v>
+        <v>3150134.055640884</v>
       </c>
       <c r="AF2" t="n">
         <v>3.56544702675498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.74869791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2475620.870824809</v>
+        <v>2849489.682611314</v>
       </c>
     </row>
     <row r="3">
@@ -49676,28 +49676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1419.994266164751</v>
+        <v>1665.412574281786</v>
       </c>
       <c r="AB3" t="n">
-        <v>1942.898800692322</v>
+        <v>2278.690956949666</v>
       </c>
       <c r="AC3" t="n">
-        <v>1757.471266029839</v>
+        <v>2061.215890181234</v>
       </c>
       <c r="AD3" t="n">
-        <v>1419994.266164751</v>
+        <v>1665412.574281786</v>
       </c>
       <c r="AE3" t="n">
-        <v>1942898.800692322</v>
+        <v>2278690.956949666</v>
       </c>
       <c r="AF3" t="n">
         <v>4.427781513397595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.91927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1757471.266029839</v>
+        <v>2061215.890181234</v>
       </c>
     </row>
     <row r="4">
@@ -49782,28 +49782,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1273.009879130603</v>
+        <v>1499.57613694539</v>
       </c>
       <c r="AB4" t="n">
-        <v>1741.788277858698</v>
+        <v>2051.786227198745</v>
       </c>
       <c r="AC4" t="n">
-        <v>1575.554449235065</v>
+        <v>1855.966629374952</v>
       </c>
       <c r="AD4" t="n">
-        <v>1273009.879130603</v>
+        <v>1499576.13694539</v>
       </c>
       <c r="AE4" t="n">
-        <v>1741788.277858698</v>
+        <v>2051786.227198745</v>
       </c>
       <c r="AF4" t="n">
         <v>4.723876302406827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.85286458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1575554.449235065</v>
+        <v>1855966.629374952</v>
       </c>
     </row>
     <row r="5">
@@ -49888,28 +49888,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200.003714315648</v>
+        <v>1417.059544462216</v>
       </c>
       <c r="AB5" t="n">
-        <v>1641.898022354197</v>
+        <v>1938.88338498813</v>
       </c>
       <c r="AC5" t="n">
-        <v>1485.197579519059</v>
+        <v>1753.839075964784</v>
       </c>
       <c r="AD5" t="n">
-        <v>1200003.714315648</v>
+        <v>1417059.544462216</v>
       </c>
       <c r="AE5" t="n">
-        <v>1641898.022354197</v>
+        <v>1938883.38498813</v>
       </c>
       <c r="AF5" t="n">
         <v>4.877246749298125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.40755208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1485197.57951906</v>
+        <v>1753839.075964784</v>
       </c>
     </row>
     <row r="6">
@@ -49994,28 +49994,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1138.715457690134</v>
+        <v>1346.362345394969</v>
       </c>
       <c r="AB6" t="n">
-        <v>1558.040725792115</v>
+        <v>1842.152358284023</v>
       </c>
       <c r="AC6" t="n">
-        <v>1409.343505646407</v>
+        <v>1666.339922686468</v>
       </c>
       <c r="AD6" t="n">
-        <v>1138715.457690134</v>
+        <v>1346362.345394969</v>
       </c>
       <c r="AE6" t="n">
-        <v>1558040.725792115</v>
+        <v>1842152.358284023</v>
       </c>
       <c r="AF6" t="n">
         <v>4.987367395547626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.43098958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1409343.505646408</v>
+        <v>1666339.922686468</v>
       </c>
     </row>
     <row r="7">
@@ -50100,28 +50100,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1109.452457776674</v>
+        <v>1317.099345481509</v>
       </c>
       <c r="AB7" t="n">
-        <v>1518.001798318077</v>
+        <v>1802.113430809984</v>
       </c>
       <c r="AC7" t="n">
-        <v>1373.125837215504</v>
+        <v>1630.122254255564</v>
       </c>
       <c r="AD7" t="n">
-        <v>1109452.457776674</v>
+        <v>1317099.345481509</v>
       </c>
       <c r="AE7" t="n">
-        <v>1518001.798318077</v>
+        <v>1802113.430809984</v>
       </c>
       <c r="AF7" t="n">
         <v>5.029619123866921e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.06640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1373125.837215504</v>
+        <v>1630122.254255564</v>
       </c>
     </row>
     <row r="8">
@@ -50206,28 +50206,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1096.099929725086</v>
+        <v>1313.188914260578</v>
       </c>
       <c r="AB8" t="n">
-        <v>1499.732280365931</v>
+        <v>1796.763006297457</v>
       </c>
       <c r="AC8" t="n">
-        <v>1356.599936415282</v>
+        <v>1625.282466749145</v>
       </c>
       <c r="AD8" t="n">
-        <v>1096099.929725086</v>
+        <v>1313188.914260578</v>
       </c>
       <c r="AE8" t="n">
-        <v>1499732.280365931</v>
+        <v>1796763.006297457</v>
       </c>
       <c r="AF8" t="n">
         <v>5.037936393221113e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.99479166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1356599.936415282</v>
+        <v>1625282.466749145</v>
       </c>
     </row>
     <row r="9">
@@ -50312,28 +50312,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1100.574101564129</v>
+        <v>1317.663086099622</v>
       </c>
       <c r="AB9" t="n">
-        <v>1505.854039662641</v>
+        <v>1802.884765594167</v>
       </c>
       <c r="AC9" t="n">
-        <v>1362.137443596657</v>
+        <v>1630.81997393052</v>
       </c>
       <c r="AD9" t="n">
-        <v>1100574.10156413</v>
+        <v>1317663.086099622</v>
       </c>
       <c r="AE9" t="n">
-        <v>1505854.039662641</v>
+        <v>1802884.765594167</v>
       </c>
       <c r="AF9" t="n">
         <v>5.037936393221113e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.99479166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1362137.443596657</v>
+        <v>1630819.97393052</v>
       </c>
     </row>
   </sheetData>
@@ -50609,28 +50609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2629.642661678142</v>
+        <v>2963.930189252153</v>
       </c>
       <c r="AB2" t="n">
-        <v>3597.993101354782</v>
+        <v>4055.380044306443</v>
       </c>
       <c r="AC2" t="n">
-        <v>3254.605689576379</v>
+        <v>3668.340264639323</v>
       </c>
       <c r="AD2" t="n">
-        <v>2629642.661678142</v>
+        <v>2963930.189252153</v>
       </c>
       <c r="AE2" t="n">
-        <v>3597993.101354782</v>
+        <v>4055380.044306443</v>
       </c>
       <c r="AF2" t="n">
         <v>2.828504528227343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.19010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3254605.689576379</v>
+        <v>3668340.264639323</v>
       </c>
     </row>
     <row r="3">
@@ -50715,28 +50715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1707.252034253877</v>
+        <v>1965.167298042614</v>
       </c>
       <c r="AB3" t="n">
-        <v>2335.937551910182</v>
+        <v>2688.828594244323</v>
       </c>
       <c r="AC3" t="n">
-        <v>2112.998950464819</v>
+        <v>2432.210567004278</v>
       </c>
       <c r="AD3" t="n">
-        <v>1707252.034253877</v>
+        <v>1965167.298042614</v>
       </c>
       <c r="AE3" t="n">
-        <v>2335937.551910182</v>
+        <v>2688828.594244323</v>
       </c>
       <c r="AF3" t="n">
         <v>3.730853165950478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.69270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2112998.950464819</v>
+        <v>2432210.567004278</v>
       </c>
     </row>
     <row r="4">
@@ -50821,28 +50821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1497.471717741177</v>
+        <v>1736.277085631671</v>
       </c>
       <c r="AB4" t="n">
-        <v>2048.906868003118</v>
+        <v>2375.650907700174</v>
       </c>
       <c r="AC4" t="n">
-        <v>1853.36207217975</v>
+        <v>2148.922119316259</v>
       </c>
       <c r="AD4" t="n">
-        <v>1497471.717741177</v>
+        <v>1736277.085631671</v>
       </c>
       <c r="AE4" t="n">
-        <v>2048906.868003118</v>
+        <v>2375650.907700174</v>
       </c>
       <c r="AF4" t="n">
         <v>4.05375533768988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1853362.07217975</v>
+        <v>2148922.119316259</v>
       </c>
     </row>
     <row r="5">
@@ -50927,28 +50927,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1397.748267818251</v>
+        <v>1626.998687759622</v>
       </c>
       <c r="AB5" t="n">
-        <v>1912.460844330459</v>
+        <v>2226.131382708973</v>
       </c>
       <c r="AC5" t="n">
-        <v>1729.938265503213</v>
+        <v>2013.672527938247</v>
       </c>
       <c r="AD5" t="n">
-        <v>1397748.267818251</v>
+        <v>1626998.687759622</v>
       </c>
       <c r="AE5" t="n">
-        <v>1912460.844330459</v>
+        <v>2226131.382708973</v>
       </c>
       <c r="AF5" t="n">
         <v>4.218761309853959e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.71614583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1729938.265503213</v>
+        <v>2013672.527938247</v>
       </c>
     </row>
     <row r="6">
@@ -51033,28 +51033,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1336.191042889828</v>
+        <v>1555.920680300858</v>
       </c>
       <c r="AB6" t="n">
-        <v>1828.235533470292</v>
+        <v>2128.879317163512</v>
       </c>
       <c r="AC6" t="n">
-        <v>1653.751300100574</v>
+        <v>1925.702063034314</v>
       </c>
       <c r="AD6" t="n">
-        <v>1336191.042889828</v>
+        <v>1555920.680300858</v>
       </c>
       <c r="AE6" t="n">
-        <v>1828235.533470293</v>
+        <v>2128879.317163513</v>
       </c>
       <c r="AF6" t="n">
         <v>4.320371809768283e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.64192708333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1653751.300100574</v>
+        <v>1925702.063034314</v>
       </c>
     </row>
     <row r="7">
@@ -51139,28 +51139,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1274.483050009455</v>
+        <v>1494.178522001704</v>
       </c>
       <c r="AB7" t="n">
-        <v>1743.803935246855</v>
+        <v>2044.400972306827</v>
       </c>
       <c r="AC7" t="n">
-        <v>1577.377735111089</v>
+        <v>1849.286212844649</v>
       </c>
       <c r="AD7" t="n">
-        <v>1274483.050009455</v>
+        <v>1494178.522001704</v>
       </c>
       <c r="AE7" t="n">
-        <v>1743803.935246855</v>
+        <v>2044400.972306828</v>
       </c>
       <c r="AF7" t="n">
         <v>4.42405599335433e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.59375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1577377.735111089</v>
+        <v>1849286.212844649</v>
       </c>
     </row>
     <row r="8">
@@ -51245,28 +51245,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1257.136534913439</v>
+        <v>1467.243904567642</v>
       </c>
       <c r="AB8" t="n">
-        <v>1720.069668018251</v>
+        <v>2007.547840462087</v>
       </c>
       <c r="AC8" t="n">
-        <v>1555.90863303553</v>
+        <v>1815.950292179476</v>
       </c>
       <c r="AD8" t="n">
-        <v>1257136.534913439</v>
+        <v>1467243.904567642</v>
       </c>
       <c r="AE8" t="n">
-        <v>1720069.668018251</v>
+        <v>2007547.840462087</v>
       </c>
       <c r="AF8" t="n">
         <v>4.438868019580908e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.45052083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1555908.63303553</v>
+        <v>1815950.292179476</v>
       </c>
     </row>
     <row r="9">
@@ -51351,28 +51351,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1227.479646738374</v>
+        <v>1437.587016392577</v>
       </c>
       <c r="AB9" t="n">
-        <v>1679.49180524756</v>
+        <v>1966.969977691396</v>
       </c>
       <c r="AC9" t="n">
-        <v>1519.203464536285</v>
+        <v>1779.245123680231</v>
       </c>
       <c r="AD9" t="n">
-        <v>1227479.646738374</v>
+        <v>1437587.016392577</v>
       </c>
       <c r="AE9" t="n">
-        <v>1679491.80524756</v>
+        <v>1966969.977691396</v>
       </c>
       <c r="AF9" t="n">
         <v>4.478268009343606e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.06640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1519203.464536285</v>
+        <v>1779245.123680231</v>
       </c>
     </row>
     <row r="10">
@@ -51457,28 +51457,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1192.845293299037</v>
+        <v>1403.019982760945</v>
       </c>
       <c r="AB10" t="n">
-        <v>1632.103554912024</v>
+        <v>1919.673837286702</v>
       </c>
       <c r="AC10" t="n">
-        <v>1476.337882302946</v>
+        <v>1736.462860535211</v>
       </c>
       <c r="AD10" t="n">
-        <v>1192845.293299037</v>
+        <v>1403019.982760945</v>
       </c>
       <c r="AE10" t="n">
-        <v>1632103.554912024</v>
+        <v>1919673.837286702</v>
       </c>
       <c r="AF10" t="n">
         <v>4.502855972879726e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.83203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1476337.882302946</v>
+        <v>1736462.860535211</v>
       </c>
     </row>
     <row r="11">
@@ -51563,28 +51563,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1186.05306505162</v>
+        <v>1396.227754513528</v>
       </c>
       <c r="AB11" t="n">
-        <v>1622.810128571947</v>
+        <v>1910.380410946624</v>
       </c>
       <c r="AC11" t="n">
-        <v>1467.931407529359</v>
+        <v>1728.056385761624</v>
       </c>
       <c r="AD11" t="n">
-        <v>1186053.06505162</v>
+        <v>1396227.754513528</v>
       </c>
       <c r="AE11" t="n">
-        <v>1622810.128571946</v>
+        <v>1910380.410946624</v>
       </c>
       <c r="AF11" t="n">
         <v>4.515594315434582e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.70833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1467931.407529359</v>
+        <v>1728056.385761624</v>
       </c>
     </row>
     <row r="12">
@@ -51669,28 +51669,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1190.00525654741</v>
+        <v>1400.179946009317</v>
       </c>
       <c r="AB12" t="n">
-        <v>1628.217691334868</v>
+        <v>1915.787973709546</v>
       </c>
       <c r="AC12" t="n">
-        <v>1472.82288009175</v>
+        <v>1732.947858324015</v>
       </c>
       <c r="AD12" t="n">
-        <v>1190005.25654741</v>
+        <v>1400179.946009317</v>
       </c>
       <c r="AE12" t="n">
-        <v>1628217.691334868</v>
+        <v>1915787.973709546</v>
       </c>
       <c r="AF12" t="n">
         <v>4.514113112811925e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.72786458333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1472822.88009175</v>
+        <v>1732947.858324015</v>
       </c>
     </row>
   </sheetData>
